--- a/src/Job-hunting.xlsx
+++ b/src/Job-hunting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-20KEPC0Y7KFA-Data\junhuawa\Documents\00-keypoints\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B21F1B-42A9-4F36-AEDF-B04A7ADA52D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98964A70-A5A4-4A2B-89CE-21BC16997D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,12 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">求职项目!$4:$6</definedName>
-    <definedName name="task_end" localSheetId="0">求职项目!$K1</definedName>
-    <definedName name="task_progress" localSheetId="0">求职项目!$I1</definedName>
-    <definedName name="task_start" localSheetId="0">求职项目!$J1</definedName>
+    <definedName name="task_end" localSheetId="0">求职项目!$L1</definedName>
+    <definedName name="task_progress" localSheetId="0">求职项目!$J1</definedName>
+    <definedName name="task_start" localSheetId="0">求职项目!$K1</definedName>
     <definedName name="今天" localSheetId="0">TODAY()</definedName>
-    <definedName name="显示周数">求职项目!$J$4</definedName>
-    <definedName name="项目开始">求职项目!$J$3</definedName>
+    <definedName name="显示周数">求职项目!$K$4</definedName>
+    <definedName name="项目开始">求职项目!$K$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="120">
   <si>
     <t>在此工作表中创建项目日程安排。
 在单元格 B1 中输入此项目的标题。
@@ -333,10 +333,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Wang Junhua</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>联耀医疗-上海张江</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -427,10 +423,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>火车西站</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>南京</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -440,6 +432,62 @@
   </si>
   <si>
     <t>机会3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州至千哩科技</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux内核，调优，ARMv8，定制</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>王女士</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>西兴</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>百子尖科技</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨先生</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓前</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPGA 开发工程师</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPGA-Altera+Xilinx+VCS-图像处理算法+Verilog</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级驱动工程师</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入式驱动开发(英文面试)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入式软件工程师</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>路女士</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1101,7 +1149,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="7" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1111,6 +1158,7 @@
     <xf numFmtId="177" fontId="7" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1681,47 +1729,47 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:FC48"/>
+  <dimension ref="A1:FD48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="12" ySplit="9" topLeftCell="M10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="9" topLeftCell="N10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.77734375" style="11" customWidth="1"/>
     <col min="2" max="2" width="15.109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="36.88671875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.109375" style="9" customWidth="1"/>
-    <col min="18" max="21" width="4.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="47" width="4.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="4.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="3.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="4.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="51" max="54" width="3.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="4.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="3.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="57" max="159" width="4.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="160" max="16384" width="8.88671875" style="9"/>
+    <col min="3" max="4" width="36.88671875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.109375" style="9" customWidth="1"/>
+    <col min="19" max="22" width="4.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="48" width="4.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="4.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="3.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="4.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="52" max="55" width="3.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="4.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="3.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="58" max="160" width="4.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="161" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:159" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:160" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1732,17 +1780,18 @@
         <v>76</v>
       </c>
       <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
+      <c r="E1" s="4"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="10"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="10"/>
     </row>
-    <row r="2" spans="1:159" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:160" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -1753,859 +1802,863 @@
         <v>77</v>
       </c>
       <c r="D2" s="90"/>
-      <c r="M2" s="13"/>
+      <c r="E2" s="90"/>
+      <c r="N2" s="13"/>
     </row>
-    <row r="3" spans="1:159" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:160" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="95"/>
       <c r="D3" s="90"/>
-      <c r="E3" s="96" t="s">
+      <c r="E3" s="90"/>
+      <c r="F3" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="96"/>
       <c r="G3" s="96"/>
       <c r="H3" s="96"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="98">
-        <f>J9</f>
+      <c r="I3" s="96"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="98">
+        <f>K9</f>
         <v>45489</v>
       </c>
-      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
     </row>
-    <row r="4" spans="1:159" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:160" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="95"/>
       <c r="D4" s="90"/>
-      <c r="E4" s="96" t="s">
+      <c r="E4" s="90"/>
+      <c r="F4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="96"/>
       <c r="G4" s="96"/>
       <c r="H4" s="96"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="14">
+      <c r="I4" s="96"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="14">
         <v>1</v>
       </c>
-      <c r="M4" s="92">
-        <f>M5</f>
+      <c r="N4" s="91">
+        <f>N5</f>
         <v>45488</v>
       </c>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="92">
-        <f>T5</f>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="91">
+        <f>U5</f>
         <v>45495</v>
       </c>
-      <c r="U4" s="93"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="93"/>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="93"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="92">
-        <f>AA5</f>
+      <c r="V4" s="92"/>
+      <c r="W4" s="92"/>
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="91">
+        <f>AB5</f>
         <v>45502</v>
       </c>
-      <c r="AB4" s="93"/>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="93"/>
-      <c r="AE4" s="93"/>
-      <c r="AF4" s="93"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="92">
-        <f>AH5</f>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="92"/>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="91">
+        <f>AI5</f>
         <v>45509</v>
       </c>
-      <c r="AI4" s="93"/>
-      <c r="AJ4" s="93"/>
-      <c r="AK4" s="93"/>
-      <c r="AL4" s="93"/>
-      <c r="AM4" s="93"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="92">
-        <f>AO5</f>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="92"/>
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="93"/>
+      <c r="AP4" s="91">
+        <f>AP5</f>
         <v>45516</v>
       </c>
-      <c r="AP4" s="93"/>
-      <c r="AQ4" s="93"/>
-      <c r="AR4" s="93"/>
-      <c r="AS4" s="93"/>
-      <c r="AT4" s="93"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="92">
-        <f>AV5</f>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="92"/>
+      <c r="AS4" s="92"/>
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="93"/>
+      <c r="AW4" s="91">
+        <f>AW5</f>
         <v>45523</v>
       </c>
-      <c r="AW4" s="93"/>
-      <c r="AX4" s="93"/>
-      <c r="AY4" s="93"/>
-      <c r="AZ4" s="93"/>
-      <c r="BA4" s="93"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="92">
-        <f>BC5</f>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="92"/>
+      <c r="AZ4" s="92"/>
+      <c r="BA4" s="92"/>
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="93"/>
+      <c r="BD4" s="91">
+        <f>BD5</f>
         <v>45530</v>
       </c>
-      <c r="BD4" s="93"/>
-      <c r="BE4" s="93"/>
-      <c r="BF4" s="93"/>
-      <c r="BG4" s="93"/>
-      <c r="BH4" s="93"/>
-      <c r="BI4" s="94"/>
-      <c r="BJ4" s="92">
-        <f>BJ5</f>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="92"/>
+      <c r="BG4" s="92"/>
+      <c r="BH4" s="92"/>
+      <c r="BI4" s="92"/>
+      <c r="BJ4" s="93"/>
+      <c r="BK4" s="91">
+        <f>BK5</f>
         <v>45537</v>
       </c>
-      <c r="BK4" s="93"/>
-      <c r="BL4" s="93"/>
-      <c r="BM4" s="93"/>
-      <c r="BN4" s="93"/>
-      <c r="BO4" s="93"/>
-      <c r="BP4" s="94"/>
-      <c r="BQ4" s="92">
-        <f t="shared" ref="BQ4" si="0">BQ5</f>
+      <c r="BL4" s="92"/>
+      <c r="BM4" s="92"/>
+      <c r="BN4" s="92"/>
+      <c r="BO4" s="92"/>
+      <c r="BP4" s="92"/>
+      <c r="BQ4" s="93"/>
+      <c r="BR4" s="91">
+        <f t="shared" ref="BR4" si="0">BR5</f>
         <v>45544</v>
       </c>
-      <c r="BR4" s="93"/>
-      <c r="BS4" s="93"/>
-      <c r="BT4" s="93"/>
-      <c r="BU4" s="93"/>
-      <c r="BV4" s="93"/>
-      <c r="BW4" s="94"/>
-      <c r="BX4" s="92">
-        <f t="shared" ref="BX4" si="1">BX5</f>
+      <c r="BS4" s="92"/>
+      <c r="BT4" s="92"/>
+      <c r="BU4" s="92"/>
+      <c r="BV4" s="92"/>
+      <c r="BW4" s="92"/>
+      <c r="BX4" s="93"/>
+      <c r="BY4" s="91">
+        <f t="shared" ref="BY4" si="1">BY5</f>
         <v>45551</v>
       </c>
-      <c r="BY4" s="93"/>
-      <c r="BZ4" s="93"/>
-      <c r="CA4" s="93"/>
-      <c r="CB4" s="93"/>
-      <c r="CC4" s="93"/>
-      <c r="CD4" s="94"/>
-      <c r="CE4" s="92">
-        <f t="shared" ref="CE4" si="2">CE5</f>
+      <c r="BZ4" s="92"/>
+      <c r="CA4" s="92"/>
+      <c r="CB4" s="92"/>
+      <c r="CC4" s="92"/>
+      <c r="CD4" s="92"/>
+      <c r="CE4" s="93"/>
+      <c r="CF4" s="91">
+        <f t="shared" ref="CF4" si="2">CF5</f>
         <v>45558</v>
       </c>
-      <c r="CF4" s="93"/>
-      <c r="CG4" s="93"/>
-      <c r="CH4" s="93"/>
-      <c r="CI4" s="93"/>
-      <c r="CJ4" s="93"/>
-      <c r="CK4" s="94"/>
-      <c r="CL4" s="92">
-        <f t="shared" ref="CL4" si="3">CL5</f>
+      <c r="CG4" s="92"/>
+      <c r="CH4" s="92"/>
+      <c r="CI4" s="92"/>
+      <c r="CJ4" s="92"/>
+      <c r="CK4" s="92"/>
+      <c r="CL4" s="93"/>
+      <c r="CM4" s="91">
+        <f t="shared" ref="CM4" si="3">CM5</f>
         <v>45565</v>
       </c>
-      <c r="CM4" s="93"/>
-      <c r="CN4" s="93"/>
-      <c r="CO4" s="93"/>
-      <c r="CP4" s="93"/>
-      <c r="CQ4" s="93"/>
-      <c r="CR4" s="94"/>
-      <c r="CS4" s="92">
-        <f t="shared" ref="CS4" si="4">CS5</f>
+      <c r="CN4" s="92"/>
+      <c r="CO4" s="92"/>
+      <c r="CP4" s="92"/>
+      <c r="CQ4" s="92"/>
+      <c r="CR4" s="92"/>
+      <c r="CS4" s="93"/>
+      <c r="CT4" s="91">
+        <f t="shared" ref="CT4" si="4">CT5</f>
         <v>45572</v>
       </c>
-      <c r="CT4" s="93"/>
-      <c r="CU4" s="93"/>
-      <c r="CV4" s="93"/>
-      <c r="CW4" s="93"/>
-      <c r="CX4" s="93"/>
-      <c r="CY4" s="94"/>
-      <c r="CZ4" s="92">
-        <f t="shared" ref="CZ4" si="5">CZ5</f>
+      <c r="CU4" s="92"/>
+      <c r="CV4" s="92"/>
+      <c r="CW4" s="92"/>
+      <c r="CX4" s="92"/>
+      <c r="CY4" s="92"/>
+      <c r="CZ4" s="93"/>
+      <c r="DA4" s="91">
+        <f t="shared" ref="DA4" si="5">DA5</f>
         <v>45579</v>
       </c>
-      <c r="DA4" s="93"/>
-      <c r="DB4" s="93"/>
-      <c r="DC4" s="93"/>
-      <c r="DD4" s="93"/>
-      <c r="DE4" s="93"/>
-      <c r="DF4" s="94"/>
-      <c r="DG4" s="92">
-        <f t="shared" ref="DG4" si="6">DG5</f>
+      <c r="DB4" s="92"/>
+      <c r="DC4" s="92"/>
+      <c r="DD4" s="92"/>
+      <c r="DE4" s="92"/>
+      <c r="DF4" s="92"/>
+      <c r="DG4" s="93"/>
+      <c r="DH4" s="91">
+        <f t="shared" ref="DH4" si="6">DH5</f>
         <v>45586</v>
       </c>
-      <c r="DH4" s="93"/>
-      <c r="DI4" s="93"/>
-      <c r="DJ4" s="93"/>
-      <c r="DK4" s="93"/>
-      <c r="DL4" s="93"/>
-      <c r="DM4" s="94"/>
-      <c r="DN4" s="92">
-        <f t="shared" ref="DN4" si="7">DN5</f>
+      <c r="DI4" s="92"/>
+      <c r="DJ4" s="92"/>
+      <c r="DK4" s="92"/>
+      <c r="DL4" s="92"/>
+      <c r="DM4" s="92"/>
+      <c r="DN4" s="93"/>
+      <c r="DO4" s="91">
+        <f t="shared" ref="DO4" si="7">DO5</f>
         <v>45593</v>
       </c>
-      <c r="DO4" s="93"/>
-      <c r="DP4" s="93"/>
-      <c r="DQ4" s="93"/>
-      <c r="DR4" s="93"/>
-      <c r="DS4" s="93"/>
-      <c r="DT4" s="94"/>
-      <c r="DU4" s="92">
-        <f t="shared" ref="DU4" si="8">DU5</f>
+      <c r="DP4" s="92"/>
+      <c r="DQ4" s="92"/>
+      <c r="DR4" s="92"/>
+      <c r="DS4" s="92"/>
+      <c r="DT4" s="92"/>
+      <c r="DU4" s="93"/>
+      <c r="DV4" s="91">
+        <f t="shared" ref="DV4" si="8">DV5</f>
         <v>45600</v>
       </c>
-      <c r="DV4" s="93"/>
-      <c r="DW4" s="93"/>
-      <c r="DX4" s="93"/>
-      <c r="DY4" s="93"/>
-      <c r="DZ4" s="93"/>
-      <c r="EA4" s="94"/>
-      <c r="EB4" s="92">
-        <f t="shared" ref="EB4" si="9">EB5</f>
+      <c r="DW4" s="92"/>
+      <c r="DX4" s="92"/>
+      <c r="DY4" s="92"/>
+      <c r="DZ4" s="92"/>
+      <c r="EA4" s="92"/>
+      <c r="EB4" s="93"/>
+      <c r="EC4" s="91">
+        <f t="shared" ref="EC4" si="9">EC5</f>
         <v>45607</v>
       </c>
-      <c r="EC4" s="93"/>
-      <c r="ED4" s="93"/>
-      <c r="EE4" s="93"/>
-      <c r="EF4" s="93"/>
-      <c r="EG4" s="93"/>
-      <c r="EH4" s="94"/>
-      <c r="EI4" s="92">
-        <f t="shared" ref="EI4" si="10">EI5</f>
+      <c r="ED4" s="92"/>
+      <c r="EE4" s="92"/>
+      <c r="EF4" s="92"/>
+      <c r="EG4" s="92"/>
+      <c r="EH4" s="92"/>
+      <c r="EI4" s="93"/>
+      <c r="EJ4" s="91">
+        <f t="shared" ref="EJ4" si="10">EJ5</f>
         <v>45614</v>
       </c>
-      <c r="EJ4" s="93"/>
-      <c r="EK4" s="93"/>
-      <c r="EL4" s="93"/>
-      <c r="EM4" s="93"/>
-      <c r="EN4" s="93"/>
-      <c r="EO4" s="94"/>
-      <c r="EP4" s="92">
-        <f t="shared" ref="EP4" si="11">EP5</f>
+      <c r="EK4" s="92"/>
+      <c r="EL4" s="92"/>
+      <c r="EM4" s="92"/>
+      <c r="EN4" s="92"/>
+      <c r="EO4" s="92"/>
+      <c r="EP4" s="93"/>
+      <c r="EQ4" s="91">
+        <f t="shared" ref="EQ4" si="11">EQ5</f>
         <v>45621</v>
       </c>
-      <c r="EQ4" s="93"/>
-      <c r="ER4" s="93"/>
-      <c r="ES4" s="93"/>
-      <c r="ET4" s="93"/>
-      <c r="EU4" s="93"/>
-      <c r="EV4" s="94"/>
-      <c r="EW4" s="92">
-        <f t="shared" ref="EW4" si="12">EW5</f>
+      <c r="ER4" s="92"/>
+      <c r="ES4" s="92"/>
+      <c r="ET4" s="92"/>
+      <c r="EU4" s="92"/>
+      <c r="EV4" s="92"/>
+      <c r="EW4" s="93"/>
+      <c r="EX4" s="91">
+        <f t="shared" ref="EX4" si="12">EX5</f>
         <v>45628</v>
       </c>
-      <c r="EX4" s="93"/>
-      <c r="EY4" s="93"/>
-      <c r="EZ4" s="93"/>
-      <c r="FA4" s="93"/>
-      <c r="FB4" s="93"/>
-      <c r="FC4" s="94"/>
+      <c r="EY4" s="92"/>
+      <c r="EZ4" s="92"/>
+      <c r="FA4" s="92"/>
+      <c r="FB4" s="92"/>
+      <c r="FC4" s="92"/>
+      <c r="FD4" s="93"/>
     </row>
-    <row r="5" spans="1:159" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:160" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="M5" s="15">
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="N5" s="15">
         <f>项目开始-WEEKDAY(项目开始,1)+2+7*(显示周数-1)</f>
         <v>45488</v>
       </c>
-      <c r="N5" s="16">
-        <f>M5+1</f>
+      <c r="O5" s="16">
+        <f>N5+1</f>
         <v>45489</v>
       </c>
-      <c r="O5" s="16">
-        <f t="shared" ref="O5:BD5" si="13">N5+1</f>
+      <c r="P5" s="16">
+        <f t="shared" ref="P5:BE5" si="13">O5+1</f>
         <v>45490</v>
       </c>
-      <c r="P5" s="16">
+      <c r="Q5" s="16">
         <f t="shared" si="13"/>
         <v>45491</v>
       </c>
-      <c r="Q5" s="16">
+      <c r="R5" s="16">
         <f t="shared" si="13"/>
         <v>45492</v>
       </c>
-      <c r="R5" s="16">
+      <c r="S5" s="16">
         <f t="shared" si="13"/>
         <v>45493</v>
       </c>
-      <c r="S5" s="17">
+      <c r="T5" s="17">
         <f t="shared" si="13"/>
         <v>45494</v>
       </c>
-      <c r="T5" s="15">
+      <c r="U5" s="15">
         <f t="shared" si="13"/>
         <v>45495</v>
       </c>
-      <c r="U5" s="16">
+      <c r="V5" s="16">
         <f t="shared" si="13"/>
         <v>45496</v>
       </c>
-      <c r="V5" s="16">
+      <c r="W5" s="16">
         <f t="shared" si="13"/>
         <v>45497</v>
       </c>
-      <c r="W5" s="16">
+      <c r="X5" s="16">
         <f t="shared" si="13"/>
         <v>45498</v>
       </c>
-      <c r="X5" s="16">
+      <c r="Y5" s="16">
         <f t="shared" si="13"/>
         <v>45499</v>
       </c>
-      <c r="Y5" s="16">
+      <c r="Z5" s="16">
         <f t="shared" si="13"/>
         <v>45500</v>
       </c>
-      <c r="Z5" s="17">
+      <c r="AA5" s="17">
         <f t="shared" si="13"/>
         <v>45501</v>
       </c>
-      <c r="AA5" s="15">
+      <c r="AB5" s="15">
         <f t="shared" si="13"/>
         <v>45502</v>
       </c>
-      <c r="AB5" s="16">
+      <c r="AC5" s="16">
         <f t="shared" si="13"/>
         <v>45503</v>
       </c>
-      <c r="AC5" s="16">
+      <c r="AD5" s="16">
         <f t="shared" si="13"/>
         <v>45504</v>
       </c>
-      <c r="AD5" s="16">
+      <c r="AE5" s="16">
         <f t="shared" si="13"/>
         <v>45505</v>
       </c>
-      <c r="AE5" s="16">
+      <c r="AF5" s="16">
         <f t="shared" si="13"/>
         <v>45506</v>
       </c>
-      <c r="AF5" s="16">
+      <c r="AG5" s="16">
         <f t="shared" si="13"/>
         <v>45507</v>
       </c>
-      <c r="AG5" s="17">
+      <c r="AH5" s="17">
         <f t="shared" si="13"/>
         <v>45508</v>
       </c>
-      <c r="AH5" s="15">
+      <c r="AI5" s="15">
         <f t="shared" si="13"/>
         <v>45509</v>
       </c>
-      <c r="AI5" s="16">
+      <c r="AJ5" s="16">
         <f t="shared" si="13"/>
         <v>45510</v>
       </c>
-      <c r="AJ5" s="16">
+      <c r="AK5" s="16">
         <f t="shared" si="13"/>
         <v>45511</v>
       </c>
-      <c r="AK5" s="16">
+      <c r="AL5" s="16">
         <f t="shared" si="13"/>
         <v>45512</v>
       </c>
-      <c r="AL5" s="16">
+      <c r="AM5" s="16">
         <f t="shared" si="13"/>
         <v>45513</v>
       </c>
-      <c r="AM5" s="16">
+      <c r="AN5" s="16">
         <f t="shared" si="13"/>
         <v>45514</v>
       </c>
-      <c r="AN5" s="17">
+      <c r="AO5" s="17">
         <f t="shared" si="13"/>
         <v>45515</v>
       </c>
-      <c r="AO5" s="15">
+      <c r="AP5" s="15">
         <f t="shared" si="13"/>
         <v>45516</v>
       </c>
-      <c r="AP5" s="16">
+      <c r="AQ5" s="16">
         <f t="shared" si="13"/>
         <v>45517</v>
       </c>
-      <c r="AQ5" s="16">
+      <c r="AR5" s="16">
         <f t="shared" si="13"/>
         <v>45518</v>
       </c>
-      <c r="AR5" s="16">
+      <c r="AS5" s="16">
         <f t="shared" si="13"/>
         <v>45519</v>
       </c>
-      <c r="AS5" s="16">
+      <c r="AT5" s="16">
         <f t="shared" si="13"/>
         <v>45520</v>
       </c>
-      <c r="AT5" s="16">
+      <c r="AU5" s="16">
         <f t="shared" si="13"/>
         <v>45521</v>
       </c>
-      <c r="AU5" s="17">
+      <c r="AV5" s="17">
         <f t="shared" si="13"/>
         <v>45522</v>
       </c>
-      <c r="AV5" s="15">
+      <c r="AW5" s="15">
         <f t="shared" si="13"/>
         <v>45523</v>
       </c>
-      <c r="AW5" s="16">
+      <c r="AX5" s="16">
         <f t="shared" si="13"/>
         <v>45524</v>
       </c>
-      <c r="AX5" s="16">
+      <c r="AY5" s="16">
         <f t="shared" si="13"/>
         <v>45525</v>
       </c>
-      <c r="AY5" s="16">
+      <c r="AZ5" s="16">
         <f t="shared" si="13"/>
         <v>45526</v>
       </c>
-      <c r="AZ5" s="16">
+      <c r="BA5" s="16">
         <f t="shared" si="13"/>
         <v>45527</v>
       </c>
-      <c r="BA5" s="16">
+      <c r="BB5" s="16">
         <f t="shared" si="13"/>
         <v>45528</v>
       </c>
-      <c r="BB5" s="17">
+      <c r="BC5" s="17">
         <f t="shared" si="13"/>
         <v>45529</v>
       </c>
-      <c r="BC5" s="15">
+      <c r="BD5" s="15">
         <f t="shared" si="13"/>
         <v>45530</v>
       </c>
-      <c r="BD5" s="16">
+      <c r="BE5" s="16">
         <f t="shared" si="13"/>
         <v>45531</v>
       </c>
-      <c r="BE5" s="16">
-        <f t="shared" ref="BE5:BK5" si="14">BD5+1</f>
+      <c r="BF5" s="16">
+        <f t="shared" ref="BF5:BL5" si="14">BE5+1</f>
         <v>45532</v>
       </c>
-      <c r="BF5" s="16">
+      <c r="BG5" s="16">
         <f t="shared" si="14"/>
         <v>45533</v>
       </c>
-      <c r="BG5" s="16">
+      <c r="BH5" s="16">
         <f t="shared" si="14"/>
         <v>45534</v>
       </c>
-      <c r="BH5" s="16">
+      <c r="BI5" s="16">
         <f t="shared" si="14"/>
         <v>45535</v>
       </c>
-      <c r="BI5" s="17">
+      <c r="BJ5" s="17">
         <f t="shared" si="14"/>
         <v>45536</v>
       </c>
-      <c r="BJ5" s="15">
+      <c r="BK5" s="15">
         <f t="shared" si="14"/>
         <v>45537</v>
       </c>
-      <c r="BK5" s="16">
+      <c r="BL5" s="16">
         <f t="shared" si="14"/>
         <v>45538</v>
       </c>
-      <c r="BL5" s="16">
-        <f t="shared" ref="BL5:BP5" si="15">BK5+1</f>
+      <c r="BM5" s="16">
+        <f t="shared" ref="BM5:BQ5" si="15">BL5+1</f>
         <v>45539</v>
       </c>
-      <c r="BM5" s="16">
+      <c r="BN5" s="16">
         <f t="shared" si="15"/>
         <v>45540</v>
       </c>
-      <c r="BN5" s="16">
+      <c r="BO5" s="16">
         <f t="shared" si="15"/>
         <v>45541</v>
       </c>
-      <c r="BO5" s="16">
+      <c r="BP5" s="16">
         <f t="shared" si="15"/>
         <v>45542</v>
       </c>
-      <c r="BP5" s="17">
+      <c r="BQ5" s="17">
         <f t="shared" si="15"/>
         <v>45543</v>
       </c>
-      <c r="BQ5" s="17">
-        <f t="shared" ref="BQ5" si="16">BP5+1</f>
+      <c r="BR5" s="17">
+        <f t="shared" ref="BR5" si="16">BQ5+1</f>
         <v>45544</v>
       </c>
-      <c r="BR5" s="17">
-        <f t="shared" ref="BR5" si="17">BQ5+1</f>
+      <c r="BS5" s="17">
+        <f t="shared" ref="BS5" si="17">BR5+1</f>
         <v>45545</v>
       </c>
-      <c r="BS5" s="17">
-        <f t="shared" ref="BS5" si="18">BR5+1</f>
+      <c r="BT5" s="17">
+        <f t="shared" ref="BT5" si="18">BS5+1</f>
         <v>45546</v>
       </c>
-      <c r="BT5" s="17">
-        <f t="shared" ref="BT5" si="19">BS5+1</f>
+      <c r="BU5" s="17">
+        <f t="shared" ref="BU5" si="19">BT5+1</f>
         <v>45547</v>
       </c>
-      <c r="BU5" s="17">
-        <f t="shared" ref="BU5" si="20">BT5+1</f>
+      <c r="BV5" s="17">
+        <f t="shared" ref="BV5" si="20">BU5+1</f>
         <v>45548</v>
       </c>
-      <c r="BV5" s="17">
-        <f t="shared" ref="BV5" si="21">BU5+1</f>
+      <c r="BW5" s="17">
+        <f t="shared" ref="BW5" si="21">BV5+1</f>
         <v>45549</v>
       </c>
-      <c r="BW5" s="17">
-        <f t="shared" ref="BW5" si="22">BV5+1</f>
+      <c r="BX5" s="17">
+        <f t="shared" ref="BX5" si="22">BW5+1</f>
         <v>45550</v>
       </c>
-      <c r="BX5" s="17">
-        <f t="shared" ref="BX5" si="23">BW5+1</f>
+      <c r="BY5" s="17">
+        <f t="shared" ref="BY5" si="23">BX5+1</f>
         <v>45551</v>
       </c>
-      <c r="BY5" s="17">
-        <f t="shared" ref="BY5" si="24">BX5+1</f>
+      <c r="BZ5" s="17">
+        <f t="shared" ref="BZ5" si="24">BY5+1</f>
         <v>45552</v>
       </c>
-      <c r="BZ5" s="17">
-        <f t="shared" ref="BZ5" si="25">BY5+1</f>
+      <c r="CA5" s="17">
+        <f t="shared" ref="CA5" si="25">BZ5+1</f>
         <v>45553</v>
       </c>
-      <c r="CA5" s="17">
-        <f t="shared" ref="CA5" si="26">BZ5+1</f>
+      <c r="CB5" s="17">
+        <f t="shared" ref="CB5" si="26">CA5+1</f>
         <v>45554</v>
       </c>
-      <c r="CB5" s="17">
-        <f t="shared" ref="CB5" si="27">CA5+1</f>
+      <c r="CC5" s="17">
+        <f t="shared" ref="CC5" si="27">CB5+1</f>
         <v>45555</v>
       </c>
-      <c r="CC5" s="17">
-        <f t="shared" ref="CC5" si="28">CB5+1</f>
+      <c r="CD5" s="17">
+        <f t="shared" ref="CD5" si="28">CC5+1</f>
         <v>45556</v>
       </c>
-      <c r="CD5" s="17">
-        <f t="shared" ref="CD5" si="29">CC5+1</f>
+      <c r="CE5" s="17">
+        <f t="shared" ref="CE5" si="29">CD5+1</f>
         <v>45557</v>
       </c>
-      <c r="CE5" s="17">
-        <f t="shared" ref="CE5" si="30">CD5+1</f>
+      <c r="CF5" s="17">
+        <f t="shared" ref="CF5" si="30">CE5+1</f>
         <v>45558</v>
       </c>
-      <c r="CF5" s="17">
-        <f t="shared" ref="CF5" si="31">CE5+1</f>
+      <c r="CG5" s="17">
+        <f t="shared" ref="CG5" si="31">CF5+1</f>
         <v>45559</v>
       </c>
-      <c r="CG5" s="17">
-        <f t="shared" ref="CG5" si="32">CF5+1</f>
+      <c r="CH5" s="17">
+        <f t="shared" ref="CH5" si="32">CG5+1</f>
         <v>45560</v>
       </c>
-      <c r="CH5" s="17">
-        <f t="shared" ref="CH5" si="33">CG5+1</f>
+      <c r="CI5" s="17">
+        <f t="shared" ref="CI5" si="33">CH5+1</f>
         <v>45561</v>
       </c>
-      <c r="CI5" s="17">
-        <f t="shared" ref="CI5" si="34">CH5+1</f>
+      <c r="CJ5" s="17">
+        <f t="shared" ref="CJ5" si="34">CI5+1</f>
         <v>45562</v>
       </c>
-      <c r="CJ5" s="17">
-        <f t="shared" ref="CJ5" si="35">CI5+1</f>
+      <c r="CK5" s="17">
+        <f t="shared" ref="CK5" si="35">CJ5+1</f>
         <v>45563</v>
       </c>
-      <c r="CK5" s="17">
-        <f t="shared" ref="CK5" si="36">CJ5+1</f>
+      <c r="CL5" s="17">
+        <f t="shared" ref="CL5" si="36">CK5+1</f>
         <v>45564</v>
       </c>
-      <c r="CL5" s="17">
-        <f t="shared" ref="CL5" si="37">CK5+1</f>
+      <c r="CM5" s="17">
+        <f t="shared" ref="CM5" si="37">CL5+1</f>
         <v>45565</v>
       </c>
-      <c r="CM5" s="17">
-        <f t="shared" ref="CM5" si="38">CL5+1</f>
+      <c r="CN5" s="17">
+        <f t="shared" ref="CN5" si="38">CM5+1</f>
         <v>45566</v>
       </c>
-      <c r="CN5" s="17">
-        <f t="shared" ref="CN5" si="39">CM5+1</f>
+      <c r="CO5" s="17">
+        <f t="shared" ref="CO5" si="39">CN5+1</f>
         <v>45567</v>
       </c>
-      <c r="CO5" s="17">
-        <f t="shared" ref="CO5" si="40">CN5+1</f>
+      <c r="CP5" s="17">
+        <f t="shared" ref="CP5" si="40">CO5+1</f>
         <v>45568</v>
       </c>
-      <c r="CP5" s="17">
-        <f t="shared" ref="CP5" si="41">CO5+1</f>
+      <c r="CQ5" s="17">
+        <f t="shared" ref="CQ5" si="41">CP5+1</f>
         <v>45569</v>
       </c>
-      <c r="CQ5" s="17">
-        <f t="shared" ref="CQ5" si="42">CP5+1</f>
+      <c r="CR5" s="17">
+        <f t="shared" ref="CR5" si="42">CQ5+1</f>
         <v>45570</v>
       </c>
-      <c r="CR5" s="17">
-        <f t="shared" ref="CR5" si="43">CQ5+1</f>
+      <c r="CS5" s="17">
+        <f t="shared" ref="CS5" si="43">CR5+1</f>
         <v>45571</v>
       </c>
-      <c r="CS5" s="17">
-        <f t="shared" ref="CS5" si="44">CR5+1</f>
+      <c r="CT5" s="17">
+        <f t="shared" ref="CT5" si="44">CS5+1</f>
         <v>45572</v>
       </c>
-      <c r="CT5" s="17">
-        <f t="shared" ref="CT5" si="45">CS5+1</f>
+      <c r="CU5" s="17">
+        <f t="shared" ref="CU5" si="45">CT5+1</f>
         <v>45573</v>
       </c>
-      <c r="CU5" s="17">
-        <f t="shared" ref="CU5" si="46">CT5+1</f>
+      <c r="CV5" s="17">
+        <f t="shared" ref="CV5" si="46">CU5+1</f>
         <v>45574</v>
       </c>
-      <c r="CV5" s="17">
-        <f t="shared" ref="CV5" si="47">CU5+1</f>
+      <c r="CW5" s="17">
+        <f t="shared" ref="CW5" si="47">CV5+1</f>
         <v>45575</v>
       </c>
-      <c r="CW5" s="17">
-        <f t="shared" ref="CW5" si="48">CV5+1</f>
+      <c r="CX5" s="17">
+        <f t="shared" ref="CX5" si="48">CW5+1</f>
         <v>45576</v>
       </c>
-      <c r="CX5" s="17">
-        <f t="shared" ref="CX5" si="49">CW5+1</f>
+      <c r="CY5" s="17">
+        <f t="shared" ref="CY5" si="49">CX5+1</f>
         <v>45577</v>
       </c>
-      <c r="CY5" s="17">
-        <f t="shared" ref="CY5" si="50">CX5+1</f>
+      <c r="CZ5" s="17">
+        <f t="shared" ref="CZ5" si="50">CY5+1</f>
         <v>45578</v>
       </c>
-      <c r="CZ5" s="17">
-        <f t="shared" ref="CZ5" si="51">CY5+1</f>
+      <c r="DA5" s="17">
+        <f t="shared" ref="DA5" si="51">CZ5+1</f>
         <v>45579</v>
       </c>
-      <c r="DA5" s="17">
-        <f t="shared" ref="DA5" si="52">CZ5+1</f>
+      <c r="DB5" s="17">
+        <f t="shared" ref="DB5" si="52">DA5+1</f>
         <v>45580</v>
       </c>
-      <c r="DB5" s="17">
-        <f t="shared" ref="DB5" si="53">DA5+1</f>
+      <c r="DC5" s="17">
+        <f t="shared" ref="DC5" si="53">DB5+1</f>
         <v>45581</v>
       </c>
-      <c r="DC5" s="17">
-        <f t="shared" ref="DC5" si="54">DB5+1</f>
+      <c r="DD5" s="17">
+        <f t="shared" ref="DD5" si="54">DC5+1</f>
         <v>45582</v>
       </c>
-      <c r="DD5" s="17">
-        <f t="shared" ref="DD5" si="55">DC5+1</f>
+      <c r="DE5" s="17">
+        <f t="shared" ref="DE5" si="55">DD5+1</f>
         <v>45583</v>
       </c>
-      <c r="DE5" s="17">
-        <f t="shared" ref="DE5" si="56">DD5+1</f>
+      <c r="DF5" s="17">
+        <f t="shared" ref="DF5" si="56">DE5+1</f>
         <v>45584</v>
       </c>
-      <c r="DF5" s="17">
-        <f t="shared" ref="DF5" si="57">DE5+1</f>
+      <c r="DG5" s="17">
+        <f t="shared" ref="DG5" si="57">DF5+1</f>
         <v>45585</v>
       </c>
-      <c r="DG5" s="17">
-        <f t="shared" ref="DG5" si="58">DF5+1</f>
+      <c r="DH5" s="17">
+        <f t="shared" ref="DH5" si="58">DG5+1</f>
         <v>45586</v>
       </c>
-      <c r="DH5" s="17">
-        <f t="shared" ref="DH5" si="59">DG5+1</f>
+      <c r="DI5" s="17">
+        <f t="shared" ref="DI5" si="59">DH5+1</f>
         <v>45587</v>
       </c>
-      <c r="DI5" s="17">
-        <f t="shared" ref="DI5" si="60">DH5+1</f>
+      <c r="DJ5" s="17">
+        <f t="shared" ref="DJ5" si="60">DI5+1</f>
         <v>45588</v>
       </c>
-      <c r="DJ5" s="17">
-        <f t="shared" ref="DJ5" si="61">DI5+1</f>
+      <c r="DK5" s="17">
+        <f t="shared" ref="DK5" si="61">DJ5+1</f>
         <v>45589</v>
       </c>
-      <c r="DK5" s="17">
-        <f t="shared" ref="DK5" si="62">DJ5+1</f>
+      <c r="DL5" s="17">
+        <f t="shared" ref="DL5" si="62">DK5+1</f>
         <v>45590</v>
       </c>
-      <c r="DL5" s="17">
-        <f t="shared" ref="DL5" si="63">DK5+1</f>
+      <c r="DM5" s="17">
+        <f t="shared" ref="DM5" si="63">DL5+1</f>
         <v>45591</v>
       </c>
-      <c r="DM5" s="17">
-        <f t="shared" ref="DM5" si="64">DL5+1</f>
+      <c r="DN5" s="17">
+        <f t="shared" ref="DN5" si="64">DM5+1</f>
         <v>45592</v>
       </c>
-      <c r="DN5" s="17">
-        <f t="shared" ref="DN5" si="65">DM5+1</f>
+      <c r="DO5" s="17">
+        <f t="shared" ref="DO5" si="65">DN5+1</f>
         <v>45593</v>
       </c>
-      <c r="DO5" s="17">
-        <f t="shared" ref="DO5" si="66">DN5+1</f>
+      <c r="DP5" s="17">
+        <f t="shared" ref="DP5" si="66">DO5+1</f>
         <v>45594</v>
       </c>
-      <c r="DP5" s="17">
-        <f t="shared" ref="DP5" si="67">DO5+1</f>
+      <c r="DQ5" s="17">
+        <f t="shared" ref="DQ5" si="67">DP5+1</f>
         <v>45595</v>
       </c>
-      <c r="DQ5" s="17">
-        <f t="shared" ref="DQ5" si="68">DP5+1</f>
+      <c r="DR5" s="17">
+        <f t="shared" ref="DR5" si="68">DQ5+1</f>
         <v>45596</v>
       </c>
-      <c r="DR5" s="17">
-        <f t="shared" ref="DR5" si="69">DQ5+1</f>
+      <c r="DS5" s="17">
+        <f t="shared" ref="DS5" si="69">DR5+1</f>
         <v>45597</v>
       </c>
-      <c r="DS5" s="17">
-        <f t="shared" ref="DS5" si="70">DR5+1</f>
+      <c r="DT5" s="17">
+        <f t="shared" ref="DT5" si="70">DS5+1</f>
         <v>45598</v>
       </c>
-      <c r="DT5" s="17">
-        <f t="shared" ref="DT5" si="71">DS5+1</f>
+      <c r="DU5" s="17">
+        <f t="shared" ref="DU5" si="71">DT5+1</f>
         <v>45599</v>
       </c>
-      <c r="DU5" s="17">
-        <f t="shared" ref="DU5" si="72">DT5+1</f>
+      <c r="DV5" s="17">
+        <f t="shared" ref="DV5" si="72">DU5+1</f>
         <v>45600</v>
       </c>
-      <c r="DV5" s="17">
-        <f t="shared" ref="DV5" si="73">DU5+1</f>
+      <c r="DW5" s="17">
+        <f t="shared" ref="DW5" si="73">DV5+1</f>
         <v>45601</v>
       </c>
-      <c r="DW5" s="17">
-        <f t="shared" ref="DW5" si="74">DV5+1</f>
+      <c r="DX5" s="17">
+        <f t="shared" ref="DX5" si="74">DW5+1</f>
         <v>45602</v>
       </c>
-      <c r="DX5" s="17">
-        <f t="shared" ref="DX5" si="75">DW5+1</f>
+      <c r="DY5" s="17">
+        <f t="shared" ref="DY5" si="75">DX5+1</f>
         <v>45603</v>
       </c>
-      <c r="DY5" s="17">
-        <f t="shared" ref="DY5" si="76">DX5+1</f>
+      <c r="DZ5" s="17">
+        <f t="shared" ref="DZ5" si="76">DY5+1</f>
         <v>45604</v>
       </c>
-      <c r="DZ5" s="17">
-        <f t="shared" ref="DZ5" si="77">DY5+1</f>
+      <c r="EA5" s="17">
+        <f t="shared" ref="EA5" si="77">DZ5+1</f>
         <v>45605</v>
       </c>
-      <c r="EA5" s="17">
-        <f t="shared" ref="EA5" si="78">DZ5+1</f>
+      <c r="EB5" s="17">
+        <f t="shared" ref="EB5" si="78">EA5+1</f>
         <v>45606</v>
       </c>
-      <c r="EB5" s="17">
-        <f t="shared" ref="EB5" si="79">EA5+1</f>
+      <c r="EC5" s="17">
+        <f t="shared" ref="EC5" si="79">EB5+1</f>
         <v>45607</v>
       </c>
-      <c r="EC5" s="17">
-        <f t="shared" ref="EC5" si="80">EB5+1</f>
+      <c r="ED5" s="17">
+        <f t="shared" ref="ED5" si="80">EC5+1</f>
         <v>45608</v>
       </c>
-      <c r="ED5" s="17">
-        <f t="shared" ref="ED5" si="81">EC5+1</f>
+      <c r="EE5" s="17">
+        <f t="shared" ref="EE5" si="81">ED5+1</f>
         <v>45609</v>
       </c>
-      <c r="EE5" s="17">
-        <f t="shared" ref="EE5" si="82">ED5+1</f>
+      <c r="EF5" s="17">
+        <f t="shared" ref="EF5" si="82">EE5+1</f>
         <v>45610</v>
       </c>
-      <c r="EF5" s="17">
-        <f t="shared" ref="EF5" si="83">EE5+1</f>
+      <c r="EG5" s="17">
+        <f t="shared" ref="EG5" si="83">EF5+1</f>
         <v>45611</v>
       </c>
-      <c r="EG5" s="17">
-        <f t="shared" ref="EG5" si="84">EF5+1</f>
+      <c r="EH5" s="17">
+        <f t="shared" ref="EH5" si="84">EG5+1</f>
         <v>45612</v>
       </c>
-      <c r="EH5" s="17">
-        <f t="shared" ref="EH5" si="85">EG5+1</f>
+      <c r="EI5" s="17">
+        <f t="shared" ref="EI5" si="85">EH5+1</f>
         <v>45613</v>
       </c>
-      <c r="EI5" s="17">
-        <f t="shared" ref="EI5" si="86">EH5+1</f>
+      <c r="EJ5" s="17">
+        <f t="shared" ref="EJ5" si="86">EI5+1</f>
         <v>45614</v>
       </c>
-      <c r="EJ5" s="17">
-        <f t="shared" ref="EJ5" si="87">EI5+1</f>
+      <c r="EK5" s="17">
+        <f t="shared" ref="EK5" si="87">EJ5+1</f>
         <v>45615</v>
       </c>
-      <c r="EK5" s="17">
-        <f t="shared" ref="EK5" si="88">EJ5+1</f>
+      <c r="EL5" s="17">
+        <f t="shared" ref="EL5" si="88">EK5+1</f>
         <v>45616</v>
       </c>
-      <c r="EL5" s="17">
-        <f t="shared" ref="EL5" si="89">EK5+1</f>
+      <c r="EM5" s="17">
+        <f t="shared" ref="EM5" si="89">EL5+1</f>
         <v>45617</v>
       </c>
-      <c r="EM5" s="17">
-        <f t="shared" ref="EM5" si="90">EL5+1</f>
+      <c r="EN5" s="17">
+        <f t="shared" ref="EN5" si="90">EM5+1</f>
         <v>45618</v>
       </c>
-      <c r="EN5" s="17">
-        <f t="shared" ref="EN5" si="91">EM5+1</f>
+      <c r="EO5" s="17">
+        <f t="shared" ref="EO5" si="91">EN5+1</f>
         <v>45619</v>
       </c>
-      <c r="EO5" s="17">
-        <f t="shared" ref="EO5" si="92">EN5+1</f>
+      <c r="EP5" s="17">
+        <f t="shared" ref="EP5" si="92">EO5+1</f>
         <v>45620</v>
       </c>
-      <c r="EP5" s="17">
-        <f t="shared" ref="EP5" si="93">EO5+1</f>
+      <c r="EQ5" s="17">
+        <f t="shared" ref="EQ5" si="93">EP5+1</f>
         <v>45621</v>
       </c>
-      <c r="EQ5" s="17">
-        <f t="shared" ref="EQ5" si="94">EP5+1</f>
+      <c r="ER5" s="17">
+        <f t="shared" ref="ER5" si="94">EQ5+1</f>
         <v>45622</v>
       </c>
-      <c r="ER5" s="17">
-        <f t="shared" ref="ER5" si="95">EQ5+1</f>
+      <c r="ES5" s="17">
+        <f t="shared" ref="ES5" si="95">ER5+1</f>
         <v>45623</v>
       </c>
-      <c r="ES5" s="17">
-        <f t="shared" ref="ES5" si="96">ER5+1</f>
+      <c r="ET5" s="17">
+        <f t="shared" ref="ET5" si="96">ES5+1</f>
         <v>45624</v>
       </c>
-      <c r="ET5" s="17">
-        <f t="shared" ref="ET5" si="97">ES5+1</f>
+      <c r="EU5" s="17">
+        <f t="shared" ref="EU5" si="97">ET5+1</f>
         <v>45625</v>
       </c>
-      <c r="EU5" s="17">
-        <f t="shared" ref="EU5" si="98">ET5+1</f>
+      <c r="EV5" s="17">
+        <f t="shared" ref="EV5" si="98">EU5+1</f>
         <v>45626</v>
       </c>
-      <c r="EV5" s="17">
-        <f t="shared" ref="EV5" si="99">EU5+1</f>
+      <c r="EW5" s="17">
+        <f t="shared" ref="EW5" si="99">EV5+1</f>
         <v>45627</v>
       </c>
-      <c r="EW5" s="17">
-        <f t="shared" ref="EW5" si="100">EV5+1</f>
+      <c r="EX5" s="17">
+        <f t="shared" ref="EX5" si="100">EW5+1</f>
         <v>45628</v>
       </c>
-      <c r="EX5" s="17">
-        <f t="shared" ref="EX5" si="101">EW5+1</f>
+      <c r="EY5" s="17">
+        <f t="shared" ref="EY5" si="101">EX5+1</f>
         <v>45629</v>
       </c>
-      <c r="EY5" s="17">
-        <f t="shared" ref="EY5" si="102">EX5+1</f>
+      <c r="EZ5" s="17">
+        <f t="shared" ref="EZ5" si="102">EY5+1</f>
         <v>45630</v>
       </c>
-      <c r="EZ5" s="17">
-        <f t="shared" ref="EZ5" si="103">EY5+1</f>
+      <c r="FA5" s="17">
+        <f t="shared" ref="FA5" si="103">EZ5+1</f>
         <v>45631</v>
       </c>
-      <c r="FA5" s="17">
-        <f t="shared" ref="FA5" si="104">EZ5+1</f>
+      <c r="FB5" s="17">
+        <f t="shared" ref="FB5" si="104">FA5+1</f>
         <v>45632</v>
       </c>
-      <c r="FB5" s="17">
-        <f t="shared" ref="FB5" si="105">FA5+1</f>
+      <c r="FC5" s="17">
+        <f t="shared" ref="FC5" si="105">FB5+1</f>
         <v>45633</v>
       </c>
-      <c r="FC5" s="17">
-        <f t="shared" ref="FC5" si="106">FB5+1</f>
+      <c r="FD5" s="17">
+        <f t="shared" ref="FD5" si="106">FC5+1</f>
         <v>45634</v>
       </c>
     </row>
-    <row r="6" spans="1:159" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:160" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -2616,635 +2669,637 @@
         <v>30</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>102</v>
-      </c>
       <c r="G6" s="19" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I6" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="K6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="L6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="M6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="71" t="str">
-        <f>LEFT(TEXT(M5,"ddd"),2)</f>
+      <c r="N6" s="71" t="str">
+        <f>LEFT(TEXT(N5,"ddd"),2)</f>
         <v>Mo</v>
       </c>
-      <c r="N6" s="71" t="str">
-        <f t="shared" ref="N6:BY6" si="107">LEFT(TEXT(N5,"ddd"),2)</f>
+      <c r="O6" s="71" t="str">
+        <f t="shared" ref="O6:BZ6" si="107">LEFT(TEXT(O5,"ddd"),2)</f>
         <v>Tu</v>
       </c>
-      <c r="O6" s="71" t="str">
+      <c r="P6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>We</v>
       </c>
-      <c r="P6" s="71" t="str">
+      <c r="Q6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Th</v>
       </c>
-      <c r="Q6" s="71" t="str">
+      <c r="R6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Fr</v>
       </c>
-      <c r="R6" s="71" t="str">
+      <c r="S6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Sa</v>
       </c>
-      <c r="S6" s="71" t="str">
+      <c r="T6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Su</v>
       </c>
-      <c r="T6" s="71" t="str">
+      <c r="U6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Mo</v>
       </c>
-      <c r="U6" s="71" t="str">
+      <c r="V6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Tu</v>
       </c>
-      <c r="V6" s="71" t="str">
+      <c r="W6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>We</v>
       </c>
-      <c r="W6" s="71" t="str">
+      <c r="X6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Th</v>
       </c>
-      <c r="X6" s="71" t="str">
+      <c r="Y6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Fr</v>
       </c>
-      <c r="Y6" s="71" t="str">
+      <c r="Z6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Sa</v>
       </c>
-      <c r="Z6" s="71" t="str">
+      <c r="AA6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Su</v>
       </c>
-      <c r="AA6" s="71" t="str">
+      <c r="AB6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Mo</v>
       </c>
-      <c r="AB6" s="71" t="str">
+      <c r="AC6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Tu</v>
       </c>
-      <c r="AC6" s="71" t="str">
+      <c r="AD6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>We</v>
       </c>
-      <c r="AD6" s="71" t="str">
+      <c r="AE6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Th</v>
       </c>
-      <c r="AE6" s="71" t="str">
+      <c r="AF6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Fr</v>
       </c>
-      <c r="AF6" s="71" t="str">
+      <c r="AG6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Sa</v>
       </c>
-      <c r="AG6" s="71" t="str">
+      <c r="AH6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Su</v>
       </c>
-      <c r="AH6" s="71" t="str">
+      <c r="AI6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Mo</v>
       </c>
-      <c r="AI6" s="71" t="str">
+      <c r="AJ6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Tu</v>
       </c>
-      <c r="AJ6" s="71" t="str">
+      <c r="AK6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>We</v>
       </c>
-      <c r="AK6" s="71" t="str">
+      <c r="AL6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Th</v>
       </c>
-      <c r="AL6" s="71" t="str">
+      <c r="AM6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Fr</v>
       </c>
-      <c r="AM6" s="71" t="str">
+      <c r="AN6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Sa</v>
       </c>
-      <c r="AN6" s="71" t="str">
+      <c r="AO6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Su</v>
       </c>
-      <c r="AO6" s="71" t="str">
+      <c r="AP6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Mo</v>
       </c>
-      <c r="AP6" s="71" t="str">
+      <c r="AQ6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Tu</v>
       </c>
-      <c r="AQ6" s="71" t="str">
+      <c r="AR6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>We</v>
       </c>
-      <c r="AR6" s="71" t="str">
+      <c r="AS6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Th</v>
       </c>
-      <c r="AS6" s="71" t="str">
+      <c r="AT6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Fr</v>
       </c>
-      <c r="AT6" s="71" t="str">
+      <c r="AU6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Sa</v>
       </c>
-      <c r="AU6" s="71" t="str">
+      <c r="AV6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Su</v>
       </c>
-      <c r="AV6" s="71" t="str">
+      <c r="AW6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Mo</v>
       </c>
-      <c r="AW6" s="71" t="str">
+      <c r="AX6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Tu</v>
       </c>
-      <c r="AX6" s="71" t="str">
+      <c r="AY6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>We</v>
       </c>
-      <c r="AY6" s="71" t="str">
+      <c r="AZ6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Th</v>
       </c>
-      <c r="AZ6" s="71" t="str">
+      <c r="BA6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Fr</v>
       </c>
-      <c r="BA6" s="71" t="str">
+      <c r="BB6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Sa</v>
       </c>
-      <c r="BB6" s="71" t="str">
+      <c r="BC6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Su</v>
       </c>
-      <c r="BC6" s="71" t="str">
+      <c r="BD6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Mo</v>
       </c>
-      <c r="BD6" s="71" t="str">
+      <c r="BE6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Tu</v>
       </c>
-      <c r="BE6" s="71" t="str">
+      <c r="BF6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>We</v>
       </c>
-      <c r="BF6" s="71" t="str">
+      <c r="BG6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Th</v>
       </c>
-      <c r="BG6" s="71" t="str">
+      <c r="BH6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Fr</v>
       </c>
-      <c r="BH6" s="71" t="str">
+      <c r="BI6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Sa</v>
       </c>
-      <c r="BI6" s="71" t="str">
+      <c r="BJ6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Su</v>
       </c>
-      <c r="BJ6" s="71" t="str">
+      <c r="BK6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Mo</v>
       </c>
-      <c r="BK6" s="71" t="str">
+      <c r="BL6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Tu</v>
       </c>
-      <c r="BL6" s="71" t="str">
+      <c r="BM6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>We</v>
       </c>
-      <c r="BM6" s="71" t="str">
+      <c r="BN6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Th</v>
       </c>
-      <c r="BN6" s="71" t="str">
+      <c r="BO6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Fr</v>
       </c>
-      <c r="BO6" s="71" t="str">
+      <c r="BP6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Sa</v>
       </c>
-      <c r="BP6" s="71" t="str">
+      <c r="BQ6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Su</v>
       </c>
-      <c r="BQ6" s="71" t="str">
+      <c r="BR6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Mo</v>
       </c>
-      <c r="BR6" s="71" t="str">
+      <c r="BS6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Tu</v>
       </c>
-      <c r="BS6" s="71" t="str">
+      <c r="BT6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>We</v>
       </c>
-      <c r="BT6" s="71" t="str">
+      <c r="BU6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Th</v>
       </c>
-      <c r="BU6" s="71" t="str">
+      <c r="BV6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Fr</v>
       </c>
-      <c r="BV6" s="71" t="str">
+      <c r="BW6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Sa</v>
       </c>
-      <c r="BW6" s="71" t="str">
+      <c r="BX6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Su</v>
       </c>
-      <c r="BX6" s="71" t="str">
+      <c r="BY6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Mo</v>
       </c>
-      <c r="BY6" s="71" t="str">
+      <c r="BZ6" s="71" t="str">
         <f t="shared" si="107"/>
         <v>Tu</v>
       </c>
-      <c r="BZ6" s="71" t="str">
-        <f t="shared" ref="BZ6:DF6" si="108">LEFT(TEXT(BZ5,"ddd"),2)</f>
+      <c r="CA6" s="71" t="str">
+        <f t="shared" ref="CA6:DG6" si="108">LEFT(TEXT(CA5,"ddd"),2)</f>
         <v>We</v>
       </c>
-      <c r="CA6" s="71" t="str">
+      <c r="CB6" s="71" t="str">
         <f t="shared" si="108"/>
         <v>Th</v>
       </c>
-      <c r="CB6" s="71" t="str">
+      <c r="CC6" s="71" t="str">
         <f t="shared" si="108"/>
         <v>Fr</v>
       </c>
-      <c r="CC6" s="71" t="str">
+      <c r="CD6" s="71" t="str">
         <f t="shared" si="108"/>
         <v>Sa</v>
       </c>
-      <c r="CD6" s="71" t="str">
+      <c r="CE6" s="71" t="str">
         <f t="shared" si="108"/>
         <v>Su</v>
       </c>
-      <c r="CE6" s="71" t="str">
+      <c r="CF6" s="71" t="str">
         <f t="shared" si="108"/>
         <v>Mo</v>
       </c>
-      <c r="CF6" s="71" t="str">
+      <c r="CG6" s="71" t="str">
         <f t="shared" si="108"/>
         <v>Tu</v>
       </c>
-      <c r="CG6" s="71" t="str">
+      <c r="CH6" s="71" t="str">
         <f t="shared" si="108"/>
         <v>We</v>
       </c>
-      <c r="CH6" s="71" t="str">
+      <c r="CI6" s="71" t="str">
         <f t="shared" si="108"/>
         <v>Th</v>
       </c>
-      <c r="CI6" s="71" t="str">
+      <c r="CJ6" s="71" t="str">
         <f t="shared" si="108"/>
         <v>Fr</v>
       </c>
-      <c r="CJ6" s="71" t="str">
+      <c r="CK6" s="71" t="str">
         <f t="shared" si="108"/>
         <v>Sa</v>
       </c>
-      <c r="CK6" s="71" t="str">
+      <c r="CL6" s="71" t="str">
         <f t="shared" si="108"/>
         <v>Su</v>
       </c>
-      <c r="CL6" s="71" t="str">
+      <c r="CM6" s="71" t="str">
         <f t="shared" si="108"/>
         <v>Mo</v>
       </c>
-      <c r="CM6" s="71" t="str">
+      <c r="CN6" s="71" t="str">
         <f t="shared" si="108"/>
         <v>Tu</v>
       </c>
-      <c r="CN6" s="71" t="str">
+      <c r="CO6" s="71" t="str">
         <f t="shared" si="108"/>
         <v>We</v>
       </c>
-      <c r="CO6" s="71" t="str">
+      <c r="CP6" s="71" t="str">
         <f t="shared" si="108"/>
         <v>Th</v>
       </c>
-      <c r="CP6" s="71" t="str">
+      <c r="CQ6" s="71" t="str">
         <f t="shared" si="108"/>
         <v>Fr</v>
       </c>
-      <c r="CQ6" s="71" t="str">
+      <c r="CR6" s="71" t="str">
         <f t="shared" si="108"/>
         <v>Sa</v>
       </c>
-      <c r="CR6" s="71" t="str">
+      <c r="CS6" s="71" t="str">
         <f t="shared" si="108"/>
         <v>Su</v>
       </c>
-      <c r="CS6" s="71" t="str">
+      <c r="CT6" s="71" t="str">
         <f t="shared" si="108"/>
         <v>Mo</v>
       </c>
-      <c r="CT6" s="71" t="str">
+      <c r="CU6" s="71" t="str">
         <f t="shared" si="108"/>
         <v>Tu</v>
       </c>
-      <c r="CU6" s="71" t="str">
+      <c r="CV6" s="71" t="str">
         <f t="shared" si="108"/>
         <v>We</v>
       </c>
-      <c r="CV6" s="71" t="str">
+      <c r="CW6" s="71" t="str">
         <f t="shared" si="108"/>
         <v>Th</v>
       </c>
-      <c r="CW6" s="71" t="str">
+      <c r="CX6" s="71" t="str">
         <f t="shared" si="108"/>
         <v>Fr</v>
       </c>
-      <c r="CX6" s="71" t="str">
+      <c r="CY6" s="71" t="str">
         <f t="shared" si="108"/>
         <v>Sa</v>
       </c>
-      <c r="CY6" s="71" t="str">
+      <c r="CZ6" s="71" t="str">
         <f t="shared" si="108"/>
         <v>Su</v>
       </c>
-      <c r="CZ6" s="71" t="str">
+      <c r="DA6" s="71" t="str">
         <f t="shared" si="108"/>
         <v>Mo</v>
       </c>
-      <c r="DA6" s="71" t="str">
+      <c r="DB6" s="71" t="str">
         <f t="shared" si="108"/>
         <v>Tu</v>
       </c>
-      <c r="DB6" s="71" t="str">
+      <c r="DC6" s="71" t="str">
         <f t="shared" si="108"/>
         <v>We</v>
       </c>
-      <c r="DC6" s="71" t="str">
+      <c r="DD6" s="71" t="str">
         <f t="shared" si="108"/>
         <v>Th</v>
       </c>
-      <c r="DD6" s="71" t="str">
+      <c r="DE6" s="71" t="str">
         <f t="shared" si="108"/>
         <v>Fr</v>
       </c>
-      <c r="DE6" s="71" t="str">
+      <c r="DF6" s="71" t="str">
         <f t="shared" si="108"/>
         <v>Sa</v>
       </c>
-      <c r="DF6" s="71" t="str">
+      <c r="DG6" s="71" t="str">
         <f t="shared" si="108"/>
         <v>Su</v>
       </c>
-      <c r="DG6" s="71" t="str">
-        <f t="shared" ref="DG6:FC6" si="109">LEFT(TEXT(DG5,"ddd"),2)</f>
+      <c r="DH6" s="71" t="str">
+        <f t="shared" ref="DH6:FD6" si="109">LEFT(TEXT(DH5,"ddd"),2)</f>
         <v>Mo</v>
       </c>
-      <c r="DH6" s="71" t="str">
+      <c r="DI6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Tu</v>
       </c>
-      <c r="DI6" s="71" t="str">
+      <c r="DJ6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>We</v>
       </c>
-      <c r="DJ6" s="71" t="str">
+      <c r="DK6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Th</v>
       </c>
-      <c r="DK6" s="71" t="str">
+      <c r="DL6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Fr</v>
       </c>
-      <c r="DL6" s="71" t="str">
+      <c r="DM6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Sa</v>
       </c>
-      <c r="DM6" s="71" t="str">
+      <c r="DN6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Su</v>
       </c>
-      <c r="DN6" s="71" t="str">
+      <c r="DO6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Mo</v>
       </c>
-      <c r="DO6" s="71" t="str">
+      <c r="DP6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Tu</v>
       </c>
-      <c r="DP6" s="71" t="str">
+      <c r="DQ6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>We</v>
       </c>
-      <c r="DQ6" s="71" t="str">
+      <c r="DR6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Th</v>
       </c>
-      <c r="DR6" s="71" t="str">
+      <c r="DS6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Fr</v>
       </c>
-      <c r="DS6" s="71" t="str">
+      <c r="DT6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Sa</v>
       </c>
-      <c r="DT6" s="71" t="str">
+      <c r="DU6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Su</v>
       </c>
-      <c r="DU6" s="71" t="str">
+      <c r="DV6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Mo</v>
       </c>
-      <c r="DV6" s="71" t="str">
+      <c r="DW6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Tu</v>
       </c>
-      <c r="DW6" s="71" t="str">
+      <c r="DX6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>We</v>
       </c>
-      <c r="DX6" s="71" t="str">
+      <c r="DY6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Th</v>
       </c>
-      <c r="DY6" s="71" t="str">
+      <c r="DZ6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Fr</v>
       </c>
-      <c r="DZ6" s="71" t="str">
+      <c r="EA6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Sa</v>
       </c>
-      <c r="EA6" s="71" t="str">
+      <c r="EB6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Su</v>
       </c>
-      <c r="EB6" s="71" t="str">
+      <c r="EC6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Mo</v>
       </c>
-      <c r="EC6" s="71" t="str">
+      <c r="ED6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Tu</v>
       </c>
-      <c r="ED6" s="71" t="str">
+      <c r="EE6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>We</v>
       </c>
-      <c r="EE6" s="71" t="str">
+      <c r="EF6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Th</v>
       </c>
-      <c r="EF6" s="71" t="str">
+      <c r="EG6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Fr</v>
       </c>
-      <c r="EG6" s="71" t="str">
+      <c r="EH6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Sa</v>
       </c>
-      <c r="EH6" s="71" t="str">
+      <c r="EI6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Su</v>
       </c>
-      <c r="EI6" s="71" t="str">
+      <c r="EJ6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Mo</v>
       </c>
-      <c r="EJ6" s="71" t="str">
+      <c r="EK6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Tu</v>
       </c>
-      <c r="EK6" s="71" t="str">
+      <c r="EL6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>We</v>
       </c>
-      <c r="EL6" s="71" t="str">
+      <c r="EM6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Th</v>
       </c>
-      <c r="EM6" s="71" t="str">
+      <c r="EN6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Fr</v>
       </c>
-      <c r="EN6" s="71" t="str">
+      <c r="EO6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Sa</v>
       </c>
-      <c r="EO6" s="71" t="str">
+      <c r="EP6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Su</v>
       </c>
-      <c r="EP6" s="71" t="str">
+      <c r="EQ6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Mo</v>
       </c>
-      <c r="EQ6" s="71" t="str">
+      <c r="ER6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Tu</v>
       </c>
-      <c r="ER6" s="71" t="str">
+      <c r="ES6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>We</v>
       </c>
-      <c r="ES6" s="71" t="str">
+      <c r="ET6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Th</v>
       </c>
-      <c r="ET6" s="71" t="str">
+      <c r="EU6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Fr</v>
       </c>
-      <c r="EU6" s="71" t="str">
+      <c r="EV6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Sa</v>
       </c>
-      <c r="EV6" s="71" t="str">
+      <c r="EW6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Su</v>
       </c>
-      <c r="EW6" s="71" t="str">
+      <c r="EX6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Mo</v>
       </c>
-      <c r="EX6" s="71" t="str">
+      <c r="EY6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Tu</v>
       </c>
-      <c r="EY6" s="71" t="str">
+      <c r="EZ6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>We</v>
       </c>
-      <c r="EZ6" s="71" t="str">
+      <c r="FA6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Th</v>
       </c>
-      <c r="FA6" s="71" t="str">
+      <c r="FB6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Fr</v>
       </c>
-      <c r="FB6" s="71" t="str">
+      <c r="FC6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Sa</v>
       </c>
-      <c r="FC6" s="71" t="str">
+      <c r="FD6" s="71" t="str">
         <f t="shared" si="109"/>
         <v>Su</v>
       </c>
     </row>
-    <row r="7" spans="1:159" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:160" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
-      <c r="J7" s="9"/>
-      <c r="L7" s="9" t="str">
+      <c r="I7" s="20"/>
+      <c r="K7" s="9"/>
+      <c r="M7" s="9" t="str">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="M7" s="21"/>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
@@ -3391,8 +3446,9 @@
       <c r="FA7" s="21"/>
       <c r="FB7" s="21"/>
       <c r="FC7" s="21"/>
+      <c r="FD7" s="21"/>
     </row>
-    <row r="8" spans="1:159" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:160" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -3403,18 +3459,18 @@
         <v>78</v>
       </c>
       <c r="D8" s="63"/>
-      <c r="E8" s="64"/>
+      <c r="E8" s="63"/>
       <c r="F8" s="64"/>
       <c r="G8" s="64"/>
       <c r="H8" s="64"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="27" t="str">
-        <f t="shared" ref="L8:L45" si="110">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+      <c r="I8" s="64"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="27" t="str">
+        <f t="shared" ref="M8:M45" si="110">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
@@ -3561,8 +3617,9 @@
       <c r="FA8" s="21"/>
       <c r="FB8" s="21"/>
       <c r="FC8" s="21"/>
+      <c r="FD8" s="21"/>
     </row>
-    <row r="9" spans="1:159" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:160" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -3571,28 +3628,28 @@
       </c>
       <c r="C9" s="69"/>
       <c r="D9" s="69"/>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="69"/>
+      <c r="F9" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="64"/>
       <c r="G9" s="64"/>
       <c r="H9" s="64"/>
-      <c r="I9" s="65">
-        <f>AVERAGE(I12:I44)</f>
+      <c r="I9" s="64"/>
+      <c r="J9" s="65">
+        <f>AVERAGE(J12:J44)</f>
         <v>0.16628787878787879</v>
       </c>
-      <c r="J9" s="70">
+      <c r="K9" s="70">
         <v>45489</v>
       </c>
-      <c r="K9" s="70">
-        <f>J9+136</f>
+      <c r="L9" s="70">
+        <f>K9+136</f>
         <v>45625</v>
       </c>
-      <c r="L9" s="27">
+      <c r="M9" s="27">
         <f t="shared" si="110"/>
         <v>137</v>
       </c>
-      <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
@@ -3739,8 +3796,9 @@
       <c r="FA9" s="21"/>
       <c r="FB9" s="21"/>
       <c r="FC9" s="21"/>
+      <c r="FD9" s="21"/>
     </row>
-    <row r="10" spans="1:159" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:160" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -3751,21 +3809,21 @@
         <v>33</v>
       </c>
       <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="24">
-        <f>AVERAGE(I12:I13)</f>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24">
+        <f>AVERAGE(J12:J13)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27" t="str">
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="27" t="str">
         <f t="shared" si="110"/>
         <v/>
       </c>
-      <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
@@ -3912,44 +3970,47 @@
       <c r="FA10" s="21"/>
       <c r="FB10" s="21"/>
       <c r="FC10" s="21"/>
+      <c r="FD10" s="21"/>
     </row>
-    <row r="11" spans="1:159" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:160" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>79</v>
+        <v>118</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>83</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" s="31">
+        <v>92</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="31">
         <v>0.7</v>
       </c>
-      <c r="J11" s="32">
+      <c r="K11" s="32">
         <v>45485</v>
       </c>
-      <c r="K11" s="32">
-        <f>J11+L11</f>
+      <c r="L11" s="32">
+        <f>K11+M11</f>
         <v>45515</v>
       </c>
-      <c r="L11" s="27">
+      <c r="M11" s="27">
         <v>30</v>
       </c>
-      <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
@@ -4096,44 +4157,47 @@
       <c r="FA11" s="21"/>
       <c r="FB11" s="21"/>
       <c r="FC11" s="21"/>
+      <c r="FD11" s="21"/>
     </row>
-    <row r="12" spans="1:159" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:160" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>105</v>
-      </c>
       <c r="G12" s="30" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="I12" s="31">
+        <v>91</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="31">
         <v>0</v>
       </c>
-      <c r="J12" s="32">
+      <c r="K12" s="32">
         <v>45489</v>
       </c>
-      <c r="K12" s="32">
-        <f t="shared" ref="K12:K13" si="111">J12+L12</f>
+      <c r="L12" s="32">
+        <f t="shared" ref="L12:L13" si="111">K12+M12</f>
         <v>45519</v>
       </c>
-      <c r="L12" s="27">
+      <c r="M12" s="27">
         <v>30</v>
       </c>
-      <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
@@ -4280,44 +4344,47 @@
       <c r="FA12" s="21"/>
       <c r="FB12" s="21"/>
       <c r="FC12" s="21"/>
+      <c r="FD12" s="21"/>
     </row>
-    <row r="13" spans="1:159" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:160" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C13" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>90</v>
-      </c>
       <c r="F13" s="30" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="31">
+        <v>91</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="31">
         <v>0</v>
       </c>
-      <c r="J13" s="32">
+      <c r="K13" s="32">
         <v>45489</v>
       </c>
-      <c r="K13" s="32">
+      <c r="L13" s="32">
         <f t="shared" si="111"/>
         <v>45519</v>
       </c>
-      <c r="L13" s="27">
+      <c r="M13" s="27">
         <v>30</v>
       </c>
-      <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="21"/>
       <c r="P13" s="21"/>
@@ -4464,34 +4531,49 @@
       <c r="FA13" s="21"/>
       <c r="FB13" s="21"/>
       <c r="FC13" s="21"/>
+      <c r="FD13" s="21"/>
     </row>
-    <row r="14" spans="1:159" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:160" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="31">
+        <v>95</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" s="31">
         <v>1</v>
       </c>
-      <c r="J14" s="32">
+      <c r="K14" s="32">
         <v>45489</v>
       </c>
-      <c r="K14" s="32">
-        <f>J14+9</f>
+      <c r="L14" s="32">
+        <f>K14+9</f>
         <v>45498</v>
       </c>
-      <c r="L14" s="27">
+      <c r="M14" s="27">
         <v>30</v>
       </c>
-      <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
@@ -4638,32 +4720,47 @@
       <c r="FA14" s="21"/>
       <c r="FB14" s="21"/>
       <c r="FC14" s="21"/>
+      <c r="FD14" s="21"/>
     </row>
-    <row r="15" spans="1:159" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:160" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="31">
+        <v>96</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="31">
         <v>0.8</v>
       </c>
-      <c r="J15" s="32">
+      <c r="K15" s="32">
         <v>45489</v>
       </c>
-      <c r="K15" s="32">
-        <f>J15+14</f>
+      <c r="L15" s="32">
+        <f>K15+14</f>
         <v>45503</v>
       </c>
-      <c r="L15" s="27">
+      <c r="M15" s="27">
         <v>30</v>
       </c>
-      <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
@@ -4810,32 +4907,33 @@
       <c r="FA15" s="21"/>
       <c r="FB15" s="21"/>
       <c r="FC15" s="21"/>
+      <c r="FD15" s="21"/>
     </row>
-    <row r="16" spans="1:159" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:160" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" s="60"/>
       <c r="D16" s="60"/>
-      <c r="E16" s="30"/>
+      <c r="E16" s="60"/>
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
       <c r="H16" s="30"/>
-      <c r="I16" s="31">
+      <c r="I16" s="30"/>
+      <c r="J16" s="31">
         <v>0</v>
       </c>
-      <c r="J16" s="32">
+      <c r="K16" s="32">
         <v>45489</v>
       </c>
-      <c r="K16" s="32">
-        <f>J16+L16</f>
+      <c r="L16" s="32">
+        <f>K16+M16</f>
         <v>45519</v>
       </c>
-      <c r="L16" s="27">
+      <c r="M16" s="27">
         <v>30</v>
       </c>
-      <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
@@ -4982,32 +5080,33 @@
       <c r="FA16" s="21"/>
       <c r="FB16" s="21"/>
       <c r="FC16" s="21"/>
+      <c r="FD16" s="21"/>
     </row>
-    <row r="17" spans="1:159" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:160" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" s="60"/>
       <c r="D17" s="60"/>
-      <c r="E17" s="30"/>
+      <c r="E17" s="60"/>
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
-      <c r="I17" s="31">
+      <c r="I17" s="30"/>
+      <c r="J17" s="31">
         <v>0</v>
       </c>
-      <c r="J17" s="32">
+      <c r="K17" s="32">
         <v>45489</v>
       </c>
-      <c r="K17" s="32">
-        <f>J17+L17</f>
+      <c r="L17" s="32">
+        <f>K17+M17</f>
         <v>45519</v>
       </c>
-      <c r="L17" s="27">
+      <c r="M17" s="27">
         <v>30</v>
       </c>
-      <c r="M17" s="21"/>
       <c r="N17" s="21"/>
       <c r="O17" s="21"/>
       <c r="P17" s="21"/>
@@ -5154,32 +5253,33 @@
       <c r="FA17" s="21"/>
       <c r="FB17" s="21"/>
       <c r="FC17" s="21"/>
+      <c r="FD17" s="21"/>
     </row>
-    <row r="18" spans="1:159" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:160" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18" s="60"/>
       <c r="D18" s="60"/>
-      <c r="E18" s="30"/>
+      <c r="E18" s="60"/>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
-      <c r="I18" s="31">
+      <c r="I18" s="30"/>
+      <c r="J18" s="31">
         <v>0.25</v>
       </c>
-      <c r="J18" s="32">
+      <c r="K18" s="32">
         <v>45489</v>
       </c>
-      <c r="K18" s="32">
-        <f>J18+L18</f>
+      <c r="L18" s="32">
+        <f>K18+M18</f>
         <v>45519</v>
       </c>
-      <c r="L18" s="27">
+      <c r="M18" s="27">
         <v>30</v>
       </c>
-      <c r="M18" s="21"/>
       <c r="N18" s="21"/>
       <c r="O18" s="21"/>
       <c r="P18" s="21"/>
@@ -5326,32 +5426,33 @@
       <c r="FA18" s="21"/>
       <c r="FB18" s="21"/>
       <c r="FC18" s="21"/>
+      <c r="FD18" s="21"/>
     </row>
-    <row r="19" spans="1:159" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:160" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" s="60"/>
       <c r="D19" s="60"/>
-      <c r="E19" s="30"/>
+      <c r="E19" s="60"/>
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
       <c r="H19" s="30"/>
-      <c r="I19" s="31">
+      <c r="I19" s="30"/>
+      <c r="J19" s="31">
         <v>1</v>
       </c>
-      <c r="J19" s="32">
+      <c r="K19" s="32">
         <v>45489</v>
       </c>
-      <c r="K19" s="32">
-        <f>J19+L19</f>
+      <c r="L19" s="32">
+        <f>K19+M19</f>
         <v>45519</v>
       </c>
-      <c r="L19" s="27">
+      <c r="M19" s="27">
         <v>30</v>
       </c>
-      <c r="M19" s="21"/>
       <c r="N19" s="21"/>
       <c r="O19" s="21"/>
       <c r="P19" s="21"/>
@@ -5498,8 +5599,9 @@
       <c r="FA19" s="21"/>
       <c r="FB19" s="21"/>
       <c r="FC19" s="21"/>
+      <c r="FD19" s="21"/>
     </row>
-    <row r="20" spans="1:159" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:160" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -5510,29 +5612,29 @@
         <v>38</v>
       </c>
       <c r="D20" s="33"/>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="33"/>
+      <c r="F20" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="34"/>
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
-      <c r="I20" s="35">
-        <f>AVERAGE(I21:I26)</f>
+      <c r="I20" s="34"/>
+      <c r="J20" s="35">
+        <f>AVERAGE(J21:J26)</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="J20" s="36">
-        <f>J21</f>
+      <c r="K20" s="36">
+        <f>K21</f>
         <v>44630</v>
       </c>
-      <c r="K20" s="37">
-        <f>K26</f>
+      <c r="L20" s="37">
+        <f>L26</f>
         <v>44672</v>
       </c>
-      <c r="L20" s="27">
+      <c r="M20" s="27">
         <f t="shared" si="110"/>
         <v>43</v>
       </c>
-      <c r="M20" s="21"/>
       <c r="N20" s="21"/>
       <c r="O20" s="21"/>
       <c r="P20" s="21"/>
@@ -5679,35 +5781,36 @@
       <c r="FA20" s="21"/>
       <c r="FB20" s="21"/>
       <c r="FC20" s="21"/>
+      <c r="FD20" s="21"/>
     </row>
-    <row r="21" spans="1:159" s="28" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:160" s="28" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="38" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="61"/>
       <c r="D21" s="61"/>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="61"/>
+      <c r="F21" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="39"/>
       <c r="G21" s="39"/>
       <c r="H21" s="39"/>
-      <c r="I21" s="40">
+      <c r="I21" s="39"/>
+      <c r="J21" s="40">
         <v>0.5</v>
       </c>
-      <c r="J21" s="41">
+      <c r="K21" s="41">
         <v>44630</v>
       </c>
-      <c r="K21" s="41">
-        <f>J21+7</f>
+      <c r="L21" s="41">
+        <f>K21+7</f>
         <v>44637</v>
       </c>
-      <c r="L21" s="27">
+      <c r="M21" s="27">
         <f t="shared" si="110"/>
         <v>8</v>
       </c>
-      <c r="M21" s="21"/>
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
@@ -5854,8 +5957,9 @@
       <c r="FA21" s="21"/>
       <c r="FB21" s="21"/>
       <c r="FC21" s="21"/>
+      <c r="FD21" s="21"/>
     </row>
-    <row r="22" spans="1:159" s="28" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:160" s="28" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="38" t="s">
         <v>20</v>
@@ -5864,27 +5968,27 @@
         <v>41</v>
       </c>
       <c r="D22" s="61"/>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="61"/>
+      <c r="F22" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="39"/>
       <c r="G22" s="39"/>
       <c r="H22" s="39"/>
-      <c r="I22" s="40">
+      <c r="I22" s="39"/>
+      <c r="J22" s="40">
         <v>0.3</v>
       </c>
-      <c r="J22" s="41">
+      <c r="K22" s="41">
         <v>44658</v>
       </c>
-      <c r="K22" s="41">
-        <f>J22+14</f>
+      <c r="L22" s="41">
+        <f>K22+14</f>
         <v>44672</v>
       </c>
-      <c r="L22" s="27">
+      <c r="M22" s="27">
         <f t="shared" si="110"/>
         <v>15</v>
       </c>
-      <c r="M22" s="21"/>
       <c r="N22" s="21"/>
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
@@ -6031,8 +6135,9 @@
       <c r="FA22" s="21"/>
       <c r="FB22" s="21"/>
       <c r="FC22" s="21"/>
+      <c r="FD22" s="21"/>
     </row>
-    <row r="23" spans="1:159" s="28" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:160" s="28" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="38" t="s">
         <v>34</v>
@@ -6041,27 +6146,27 @@
         <v>42</v>
       </c>
       <c r="D23" s="61"/>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="61"/>
+      <c r="F23" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="39"/>
       <c r="G23" s="39"/>
       <c r="H23" s="39"/>
-      <c r="I23" s="40">
+      <c r="I23" s="39"/>
+      <c r="J23" s="40">
         <v>0</v>
       </c>
-      <c r="J23" s="41">
+      <c r="K23" s="41">
         <v>44652</v>
       </c>
-      <c r="K23" s="41">
-        <f>J23+14</f>
+      <c r="L23" s="41">
+        <f>K23+14</f>
         <v>44666</v>
       </c>
-      <c r="L23" s="27">
+      <c r="M23" s="27">
         <f t="shared" si="110"/>
         <v>15</v>
       </c>
-      <c r="M23" s="21"/>
       <c r="N23" s="21"/>
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
@@ -6208,8 +6313,9 @@
       <c r="FA23" s="21"/>
       <c r="FB23" s="21"/>
       <c r="FC23" s="21"/>
+      <c r="FD23" s="21"/>
     </row>
-    <row r="24" spans="1:159" s="28" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:160" s="28" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="38" t="s">
         <v>35</v>
@@ -6218,28 +6324,28 @@
         <v>43</v>
       </c>
       <c r="D24" s="61"/>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="61"/>
+      <c r="F24" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="39"/>
       <c r="G24" s="39"/>
       <c r="H24" s="39"/>
-      <c r="I24" s="40">
+      <c r="I24" s="39"/>
+      <c r="J24" s="40">
         <v>0</v>
       </c>
-      <c r="J24" s="41">
-        <f>K23</f>
+      <c r="K24" s="41">
+        <f>L23</f>
         <v>44666</v>
       </c>
-      <c r="K24" s="41">
-        <f>J24+9</f>
+      <c r="L24" s="41">
+        <f>K24+9</f>
         <v>44675</v>
       </c>
-      <c r="L24" s="27">
+      <c r="M24" s="27">
         <f t="shared" si="110"/>
         <v>10</v>
       </c>
-      <c r="M24" s="21"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
@@ -6386,8 +6492,9 @@
       <c r="FA24" s="21"/>
       <c r="FB24" s="21"/>
       <c r="FC24" s="21"/>
+      <c r="FD24" s="21"/>
     </row>
-    <row r="25" spans="1:159" s="28" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:160" s="28" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="38" t="s">
         <v>36</v>
@@ -6396,27 +6503,27 @@
         <v>44</v>
       </c>
       <c r="D25" s="61"/>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="61"/>
+      <c r="F25" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="39"/>
       <c r="G25" s="39"/>
       <c r="H25" s="39"/>
-      <c r="I25" s="40">
+      <c r="I25" s="39"/>
+      <c r="J25" s="40">
         <v>0</v>
       </c>
-      <c r="J25" s="41">
+      <c r="K25" s="41">
         <v>44637</v>
       </c>
-      <c r="K25" s="41">
+      <c r="L25" s="41">
         <v>44658</v>
       </c>
-      <c r="L25" s="27">
+      <c r="M25" s="27">
         <f t="shared" si="110"/>
         <v>22</v>
       </c>
-      <c r="M25" s="27"/>
-      <c r="N25" s="21"/>
+      <c r="N25" s="27"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
@@ -6562,8 +6669,9 @@
       <c r="FA25" s="21"/>
       <c r="FB25" s="21"/>
       <c r="FC25" s="21"/>
+      <c r="FD25" s="21"/>
     </row>
-    <row r="26" spans="1:159" s="28" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:160" s="28" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="38" t="s">
         <v>37</v>
@@ -6572,27 +6680,27 @@
         <v>45</v>
       </c>
       <c r="D26" s="61"/>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="61"/>
+      <c r="F26" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="39"/>
       <c r="G26" s="39"/>
       <c r="H26" s="39"/>
-      <c r="I26" s="40">
+      <c r="I26" s="39"/>
+      <c r="J26" s="40">
         <v>0</v>
       </c>
-      <c r="J26" s="41">
+      <c r="K26" s="41">
         <v>44651</v>
       </c>
-      <c r="K26" s="41">
+      <c r="L26" s="41">
         <v>44672</v>
       </c>
-      <c r="L26" s="27">
+      <c r="M26" s="27">
         <f t="shared" si="110"/>
         <v>22</v>
       </c>
-      <c r="M26" s="27"/>
-      <c r="N26" s="21"/>
+      <c r="N26" s="27"/>
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
@@ -6738,8 +6846,9 @@
       <c r="FA26" s="21"/>
       <c r="FB26" s="21"/>
       <c r="FC26" s="21"/>
+      <c r="FD26" s="21"/>
     </row>
-    <row r="27" spans="1:159" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:160" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
         <v>14</v>
       </c>
@@ -6750,29 +6859,29 @@
         <v>46</v>
       </c>
       <c r="D27" s="42"/>
-      <c r="E27" s="43" t="s">
+      <c r="E27" s="42"/>
+      <c r="F27" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="43"/>
-      <c r="I27" s="44">
-        <f>AVERAGE(I28:I30)</f>
+      <c r="I27" s="43"/>
+      <c r="J27" s="44">
+        <f>AVERAGE(J28:J30)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="45">
-        <f>J28</f>
+      <c r="K27" s="45">
+        <f>K28</f>
         <v>44669</v>
       </c>
-      <c r="K27" s="46">
-        <f>K30</f>
+      <c r="L27" s="46">
+        <f>L30</f>
         <v>44739</v>
       </c>
-      <c r="L27" s="27">
+      <c r="M27" s="27">
         <f t="shared" si="110"/>
         <v>71</v>
       </c>
-      <c r="M27" s="21"/>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
@@ -6919,8 +7028,9 @@
       <c r="FA27" s="21"/>
       <c r="FB27" s="21"/>
       <c r="FC27" s="21"/>
+      <c r="FD27" s="21"/>
     </row>
-    <row r="28" spans="1:159" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:160" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11"/>
       <c r="B28" s="47" t="s">
         <v>49</v>
@@ -6929,27 +7039,27 @@
         <v>48</v>
       </c>
       <c r="D28" s="62"/>
-      <c r="E28" s="48" t="s">
+      <c r="E28" s="62"/>
+      <c r="F28" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F28" s="48"/>
       <c r="G28" s="48"/>
       <c r="H28" s="48"/>
-      <c r="I28" s="49">
+      <c r="I28" s="48"/>
+      <c r="J28" s="49">
         <v>0</v>
       </c>
-      <c r="J28" s="50">
+      <c r="K28" s="50">
         <v>44669</v>
       </c>
-      <c r="K28" s="50">
-        <f>J28+56</f>
+      <c r="L28" s="50">
+        <f>K28+56</f>
         <v>44725</v>
       </c>
-      <c r="L28" s="27">
+      <c r="M28" s="27">
         <f t="shared" si="110"/>
         <v>57</v>
       </c>
-      <c r="M28" s="21"/>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
@@ -7096,8 +7206,9 @@
       <c r="FA28" s="21"/>
       <c r="FB28" s="21"/>
       <c r="FC28" s="21"/>
+      <c r="FD28" s="21"/>
     </row>
-    <row r="29" spans="1:159" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:160" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11"/>
       <c r="B29" s="47" t="s">
         <v>50</v>
@@ -7106,27 +7217,27 @@
         <v>51</v>
       </c>
       <c r="D29" s="62"/>
-      <c r="E29" s="48" t="s">
+      <c r="E29" s="62"/>
+      <c r="F29" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F29" s="48"/>
       <c r="G29" s="48"/>
       <c r="H29" s="48"/>
-      <c r="I29" s="49">
+      <c r="I29" s="48"/>
+      <c r="J29" s="49">
         <v>0</v>
       </c>
-      <c r="J29" s="50">
+      <c r="K29" s="50">
         <v>44683</v>
       </c>
-      <c r="K29" s="50">
-        <f>J29+56</f>
+      <c r="L29" s="50">
+        <f>K29+56</f>
         <v>44739</v>
       </c>
-      <c r="L29" s="27">
+      <c r="M29" s="27">
         <f t="shared" si="110"/>
         <v>57</v>
       </c>
-      <c r="M29" s="21"/>
       <c r="N29" s="21"/>
       <c r="O29" s="21"/>
       <c r="P29" s="21"/>
@@ -7273,8 +7384,9 @@
       <c r="FA29" s="21"/>
       <c r="FB29" s="21"/>
       <c r="FC29" s="21"/>
+      <c r="FD29" s="21"/>
     </row>
-    <row r="30" spans="1:159" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:160" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="47" t="s">
         <v>15</v>
@@ -7283,27 +7395,27 @@
         <v>52</v>
       </c>
       <c r="D30" s="62"/>
-      <c r="E30" s="48" t="s">
+      <c r="E30" s="62"/>
+      <c r="F30" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="48"/>
       <c r="G30" s="48"/>
       <c r="H30" s="48"/>
-      <c r="I30" s="49">
+      <c r="I30" s="48"/>
+      <c r="J30" s="49">
         <v>0</v>
       </c>
-      <c r="J30" s="50">
+      <c r="K30" s="50">
         <v>44683</v>
       </c>
-      <c r="K30" s="50">
-        <f>J30+56</f>
+      <c r="L30" s="50">
+        <f>K30+56</f>
         <v>44739</v>
       </c>
-      <c r="L30" s="27">
+      <c r="M30" s="27">
         <f t="shared" si="110"/>
         <v>57</v>
       </c>
-      <c r="M30" s="21"/>
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
@@ -7450,8 +7562,9 @@
       <c r="FA30" s="21"/>
       <c r="FB30" s="21"/>
       <c r="FC30" s="21"/>
+      <c r="FD30" s="21"/>
     </row>
-    <row r="31" spans="1:159" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:160" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="11"/>
       <c r="B31" s="72" t="s">
         <v>23</v>
@@ -7460,29 +7573,29 @@
         <v>53</v>
       </c>
       <c r="D31" s="72"/>
-      <c r="E31" s="73" t="s">
+      <c r="E31" s="72"/>
+      <c r="F31" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="73"/>
       <c r="G31" s="73"/>
       <c r="H31" s="73"/>
-      <c r="I31" s="74">
-        <f>AVERAGE(I32:I35)</f>
+      <c r="I31" s="73"/>
+      <c r="J31" s="74">
+        <f>AVERAGE(J32:J35)</f>
         <v>8.7500000000000008E-2</v>
       </c>
-      <c r="J31" s="75">
-        <f>J32</f>
+      <c r="K31" s="75">
+        <f>K32</f>
         <v>44691</v>
       </c>
-      <c r="K31" s="75">
-        <f>K35</f>
+      <c r="L31" s="75">
+        <f>L35</f>
         <v>44742</v>
       </c>
-      <c r="L31" s="27">
-        <f t="shared" ref="L31:L35" si="112">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+      <c r="M31" s="27">
+        <f t="shared" ref="M31:M35" si="112">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>52</v>
       </c>
-      <c r="M31" s="21"/>
       <c r="N31" s="21"/>
       <c r="O31" s="21"/>
       <c r="P31" s="21"/>
@@ -7629,8 +7742,9 @@
       <c r="FA31" s="21"/>
       <c r="FB31" s="21"/>
       <c r="FC31" s="21"/>
+      <c r="FD31" s="21"/>
     </row>
-    <row r="32" spans="1:159" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:160" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="11"/>
       <c r="B32" s="60" t="s">
         <v>49</v>
@@ -7639,27 +7753,27 @@
         <v>55</v>
       </c>
       <c r="D32" s="60"/>
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="60"/>
+      <c r="F32" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="F32" s="30"/>
       <c r="G32" s="30"/>
       <c r="H32" s="30"/>
-      <c r="I32" s="31">
+      <c r="I32" s="30"/>
+      <c r="J32" s="31">
         <v>0.02</v>
       </c>
-      <c r="J32" s="32">
+      <c r="K32" s="32">
         <v>44691</v>
       </c>
-      <c r="K32" s="32">
-        <f>J32+26</f>
+      <c r="L32" s="32">
+        <f>K32+26</f>
         <v>44717</v>
       </c>
-      <c r="L32" s="27">
+      <c r="M32" s="27">
         <f t="shared" si="112"/>
         <v>27</v>
       </c>
-      <c r="M32" s="21"/>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
       <c r="P32" s="21"/>
@@ -7806,8 +7920,9 @@
       <c r="FA32" s="21"/>
       <c r="FB32" s="21"/>
       <c r="FC32" s="21"/>
+      <c r="FD32" s="21"/>
     </row>
-    <row r="33" spans="1:159" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:160" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="11"/>
       <c r="B33" s="60" t="s">
         <v>50</v>
@@ -7816,28 +7931,28 @@
         <v>56</v>
       </c>
       <c r="D33" s="60"/>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="60"/>
+      <c r="F33" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="30"/>
       <c r="G33" s="30"/>
       <c r="H33" s="30"/>
-      <c r="I33" s="31">
+      <c r="I33" s="30"/>
+      <c r="J33" s="31">
         <v>0</v>
       </c>
-      <c r="J33" s="32">
-        <f>K32</f>
+      <c r="K33" s="32">
+        <f>L32</f>
         <v>44717</v>
       </c>
-      <c r="K33" s="32">
-        <f>J33+10</f>
+      <c r="L33" s="32">
+        <f>K33+10</f>
         <v>44727</v>
       </c>
-      <c r="L33" s="27">
+      <c r="M33" s="27">
         <f t="shared" si="112"/>
         <v>11</v>
       </c>
-      <c r="M33" s="21"/>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
@@ -7984,8 +8099,9 @@
       <c r="FA33" s="21"/>
       <c r="FB33" s="21"/>
       <c r="FC33" s="21"/>
+      <c r="FD33" s="21"/>
     </row>
-    <row r="34" spans="1:159" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:160" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="11"/>
       <c r="B34" s="60" t="s">
         <v>15</v>
@@ -7994,28 +8110,28 @@
         <v>57</v>
       </c>
       <c r="D34" s="60"/>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="60"/>
+      <c r="F34" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="30"/>
       <c r="G34" s="30"/>
       <c r="H34" s="30"/>
-      <c r="I34" s="31">
+      <c r="I34" s="30"/>
+      <c r="J34" s="31">
         <v>0</v>
       </c>
-      <c r="J34" s="32">
-        <f>K33</f>
+      <c r="K34" s="32">
+        <f>L33</f>
         <v>44727</v>
       </c>
-      <c r="K34" s="32">
-        <f>J34+10</f>
+      <c r="L34" s="32">
+        <f>K34+10</f>
         <v>44737</v>
       </c>
-      <c r="L34" s="27">
+      <c r="M34" s="27">
         <f t="shared" si="112"/>
         <v>11</v>
       </c>
-      <c r="M34" s="21"/>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
       <c r="P34" s="21"/>
@@ -8162,8 +8278,9 @@
       <c r="FA34" s="21"/>
       <c r="FB34" s="21"/>
       <c r="FC34" s="21"/>
+      <c r="FD34" s="21"/>
     </row>
-    <row r="35" spans="1:159" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:160" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="11"/>
       <c r="B35" s="60" t="s">
         <v>59</v>
@@ -8172,27 +8289,27 @@
         <v>58</v>
       </c>
       <c r="D35" s="60"/>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="60"/>
+      <c r="F35" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="F35" s="30"/>
       <c r="G35" s="30"/>
       <c r="H35" s="30"/>
-      <c r="I35" s="31">
+      <c r="I35" s="30"/>
+      <c r="J35" s="31">
         <v>0.33</v>
       </c>
-      <c r="J35" s="32">
+      <c r="K35" s="32">
         <v>44645</v>
       </c>
-      <c r="K35" s="32">
-        <f>J34+15</f>
+      <c r="L35" s="32">
+        <f>K34+15</f>
         <v>44742</v>
       </c>
-      <c r="L35" s="27">
+      <c r="M35" s="27">
         <f t="shared" si="112"/>
         <v>98</v>
       </c>
-      <c r="M35" s="21"/>
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
       <c r="P35" s="21"/>
@@ -8339,8 +8456,9 @@
       <c r="FA35" s="21"/>
       <c r="FB35" s="21"/>
       <c r="FC35" s="21"/>
+      <c r="FD35" s="21"/>
     </row>
-    <row r="36" spans="1:159" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:160" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="11"/>
       <c r="B36" s="33" t="s">
         <v>24</v>
@@ -8349,23 +8467,23 @@
         <v>60</v>
       </c>
       <c r="D36" s="33"/>
-      <c r="E36" s="34" t="s">
+      <c r="E36" s="33"/>
+      <c r="F36" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="F36" s="34"/>
       <c r="G36" s="34"/>
       <c r="H36" s="34"/>
-      <c r="I36" s="35">
-        <f>AVERAGE(I37:I39)</f>
+      <c r="I36" s="34"/>
+      <c r="J36" s="35">
+        <f>AVERAGE(J37:J39)</f>
         <v>0.26666666666666666</v>
       </c>
-      <c r="J36" s="36"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="27" t="str">
+      <c r="K36" s="36"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="27" t="str">
         <f t="shared" si="110"/>
         <v/>
       </c>
-      <c r="M36" s="21"/>
       <c r="N36" s="21"/>
       <c r="O36" s="21"/>
       <c r="P36" s="21"/>
@@ -8512,8 +8630,9 @@
       <c r="FA36" s="21"/>
       <c r="FB36" s="21"/>
       <c r="FC36" s="21"/>
+      <c r="FD36" s="21"/>
     </row>
-    <row r="37" spans="1:159" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:160" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="11"/>
       <c r="B37" s="80" t="s">
         <v>49</v>
@@ -8522,27 +8641,27 @@
         <v>62</v>
       </c>
       <c r="D37" s="76"/>
-      <c r="E37" s="77" t="s">
+      <c r="E37" s="76"/>
+      <c r="F37" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="F37" s="77"/>
       <c r="G37" s="77"/>
       <c r="H37" s="77"/>
-      <c r="I37" s="78">
+      <c r="I37" s="77"/>
+      <c r="J37" s="78">
         <v>0.4</v>
       </c>
-      <c r="J37" s="79">
+      <c r="K37" s="79">
         <v>44662</v>
       </c>
-      <c r="K37" s="79">
-        <f>J37+60</f>
+      <c r="L37" s="79">
+        <f>K37+60</f>
         <v>44722</v>
       </c>
-      <c r="L37" s="27">
+      <c r="M37" s="27">
         <f t="shared" si="110"/>
         <v>61</v>
       </c>
-      <c r="M37" s="21"/>
       <c r="N37" s="21"/>
       <c r="O37" s="21"/>
       <c r="P37" s="21"/>
@@ -8689,8 +8808,9 @@
       <c r="FA37" s="21"/>
       <c r="FB37" s="21"/>
       <c r="FC37" s="21"/>
+      <c r="FD37" s="21"/>
     </row>
-    <row r="38" spans="1:159" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:160" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="11"/>
       <c r="B38" s="80" t="s">
         <v>50</v>
@@ -8699,27 +8819,27 @@
         <v>63</v>
       </c>
       <c r="D38" s="76"/>
-      <c r="E38" s="77" t="s">
+      <c r="E38" s="76"/>
+      <c r="F38" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="F38" s="77"/>
       <c r="G38" s="77"/>
       <c r="H38" s="77"/>
-      <c r="I38" s="78">
+      <c r="I38" s="77"/>
+      <c r="J38" s="78">
         <v>0.4</v>
       </c>
-      <c r="J38" s="79">
+      <c r="K38" s="79">
         <v>44662</v>
       </c>
-      <c r="K38" s="79">
-        <f>J38+60</f>
+      <c r="L38" s="79">
+        <f>K38+60</f>
         <v>44722</v>
       </c>
-      <c r="L38" s="27">
+      <c r="M38" s="27">
         <f t="shared" si="110"/>
         <v>61</v>
       </c>
-      <c r="M38" s="21"/>
       <c r="N38" s="21"/>
       <c r="O38" s="21"/>
       <c r="P38" s="21"/>
@@ -8866,8 +8986,9 @@
       <c r="FA38" s="21"/>
       <c r="FB38" s="21"/>
       <c r="FC38" s="21"/>
+      <c r="FD38" s="21"/>
     </row>
-    <row r="39" spans="1:159" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:160" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="11"/>
       <c r="B39" s="80" t="s">
         <v>15</v>
@@ -8876,27 +8997,27 @@
         <v>64</v>
       </c>
       <c r="D39" s="76"/>
-      <c r="E39" s="77" t="s">
+      <c r="E39" s="76"/>
+      <c r="F39" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="F39" s="77"/>
       <c r="G39" s="77"/>
       <c r="H39" s="77"/>
-      <c r="I39" s="78">
+      <c r="I39" s="77"/>
+      <c r="J39" s="78">
         <v>0</v>
       </c>
-      <c r="J39" s="79">
+      <c r="K39" s="79">
         <v>44723</v>
       </c>
-      <c r="K39" s="79">
-        <f>J39+20</f>
+      <c r="L39" s="79">
+        <f>K39+20</f>
         <v>44743</v>
       </c>
-      <c r="L39" s="27">
+      <c r="M39" s="27">
         <f t="shared" si="110"/>
         <v>21</v>
       </c>
-      <c r="M39" s="21"/>
       <c r="N39" s="21"/>
       <c r="O39" s="21"/>
       <c r="P39" s="21"/>
@@ -9043,8 +9164,9 @@
       <c r="FA39" s="21"/>
       <c r="FB39" s="21"/>
       <c r="FC39" s="21"/>
+      <c r="FD39" s="21"/>
     </row>
-    <row r="40" spans="1:159" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:160" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="11"/>
       <c r="B40" s="81" t="s">
         <v>75</v>
@@ -9053,23 +9175,23 @@
         <v>65</v>
       </c>
       <c r="D40" s="81"/>
-      <c r="E40" s="82" t="s">
+      <c r="E40" s="81"/>
+      <c r="F40" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="F40" s="82"/>
       <c r="G40" s="82"/>
       <c r="H40" s="82"/>
-      <c r="I40" s="83">
-        <f>AVERAGE(I41:I44)</f>
+      <c r="I40" s="82"/>
+      <c r="J40" s="83">
+        <f>AVERAGE(J41:J44)</f>
         <v>0</v>
       </c>
-      <c r="J40" s="84"/>
-      <c r="K40" s="85"/>
-      <c r="L40" s="27" t="str">
-        <f t="shared" ref="L40:L44" si="113">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+      <c r="K40" s="84"/>
+      <c r="L40" s="85"/>
+      <c r="M40" s="27" t="str">
+        <f t="shared" ref="M40:M44" si="113">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="M40" s="21"/>
       <c r="N40" s="21"/>
       <c r="O40" s="21"/>
       <c r="P40" s="21"/>
@@ -9216,8 +9338,9 @@
       <c r="FA40" s="21"/>
       <c r="FB40" s="21"/>
       <c r="FC40" s="21"/>
+      <c r="FD40" s="21"/>
     </row>
-    <row r="41" spans="1:159" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:160" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="11"/>
       <c r="B41" s="86" t="s">
         <v>67</v>
@@ -9226,27 +9349,27 @@
         <v>68</v>
       </c>
       <c r="D41" s="86"/>
-      <c r="E41" s="87" t="s">
+      <c r="E41" s="86"/>
+      <c r="F41" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="F41" s="87"/>
       <c r="G41" s="87"/>
       <c r="H41" s="87"/>
-      <c r="I41" s="88">
+      <c r="I41" s="87"/>
+      <c r="J41" s="88">
         <v>0</v>
       </c>
-      <c r="J41" s="89">
+      <c r="K41" s="89">
         <v>44666</v>
       </c>
-      <c r="K41" s="89">
-        <f>J41+23</f>
+      <c r="L41" s="89">
+        <f>K41+23</f>
         <v>44689</v>
       </c>
-      <c r="L41" s="27">
+      <c r="M41" s="27">
         <f t="shared" si="113"/>
         <v>24</v>
       </c>
-      <c r="M41" s="21"/>
       <c r="N41" s="21"/>
       <c r="O41" s="21"/>
       <c r="P41" s="21"/>
@@ -9393,8 +9516,9 @@
       <c r="FA41" s="21"/>
       <c r="FB41" s="21"/>
       <c r="FC41" s="21"/>
+      <c r="FD41" s="21"/>
     </row>
-    <row r="42" spans="1:159" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:160" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="11"/>
       <c r="B42" s="86" t="s">
         <v>69</v>
@@ -9403,27 +9527,27 @@
         <v>70</v>
       </c>
       <c r="D42" s="86"/>
-      <c r="E42" s="87" t="s">
+      <c r="E42" s="86"/>
+      <c r="F42" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="F42" s="87"/>
       <c r="G42" s="87"/>
       <c r="H42" s="87"/>
-      <c r="I42" s="88">
+      <c r="I42" s="87"/>
+      <c r="J42" s="88">
         <v>0</v>
       </c>
-      <c r="J42" s="89">
+      <c r="K42" s="89">
         <v>44691</v>
       </c>
-      <c r="K42" s="89">
-        <f>J42+23</f>
+      <c r="L42" s="89">
+        <f>K42+23</f>
         <v>44714</v>
       </c>
-      <c r="L42" s="27">
+      <c r="M42" s="27">
         <f t="shared" si="113"/>
         <v>24</v>
       </c>
-      <c r="M42" s="21"/>
       <c r="N42" s="21"/>
       <c r="O42" s="21"/>
       <c r="P42" s="21"/>
@@ -9570,8 +9694,9 @@
       <c r="FA42" s="21"/>
       <c r="FB42" s="21"/>
       <c r="FC42" s="21"/>
+      <c r="FD42" s="21"/>
     </row>
-    <row r="43" spans="1:159" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:160" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="11"/>
       <c r="B43" s="86" t="s">
         <v>71</v>
@@ -9580,27 +9705,27 @@
         <v>72</v>
       </c>
       <c r="D43" s="86"/>
-      <c r="E43" s="87" t="s">
+      <c r="E43" s="86"/>
+      <c r="F43" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="F43" s="87"/>
       <c r="G43" s="87"/>
       <c r="H43" s="87"/>
-      <c r="I43" s="88">
+      <c r="I43" s="87"/>
+      <c r="J43" s="88">
         <v>0</v>
       </c>
-      <c r="J43" s="89">
+      <c r="K43" s="89">
         <v>44701</v>
       </c>
-      <c r="K43" s="89">
-        <f>J43+23</f>
+      <c r="L43" s="89">
+        <f>K43+23</f>
         <v>44724</v>
       </c>
-      <c r="L43" s="27">
+      <c r="M43" s="27">
         <f t="shared" si="113"/>
         <v>24</v>
       </c>
-      <c r="M43" s="21"/>
       <c r="N43" s="21"/>
       <c r="O43" s="21"/>
       <c r="P43" s="21"/>
@@ -9747,8 +9872,9 @@
       <c r="FA43" s="21"/>
       <c r="FB43" s="21"/>
       <c r="FC43" s="21"/>
+      <c r="FD43" s="21"/>
     </row>
-    <row r="44" spans="1:159" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:160" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="11"/>
       <c r="B44" s="86" t="s">
         <v>73</v>
@@ -9757,27 +9883,27 @@
         <v>74</v>
       </c>
       <c r="D44" s="86"/>
-      <c r="E44" s="87" t="s">
+      <c r="E44" s="86"/>
+      <c r="F44" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="F44" s="87"/>
       <c r="G44" s="87"/>
       <c r="H44" s="87"/>
-      <c r="I44" s="88">
+      <c r="I44" s="87"/>
+      <c r="J44" s="88">
         <v>0</v>
       </c>
-      <c r="J44" s="89">
+      <c r="K44" s="89">
         <v>44711</v>
       </c>
-      <c r="K44" s="89">
-        <f>J44+23</f>
+      <c r="L44" s="89">
+        <f>K44+23</f>
         <v>44734</v>
       </c>
-      <c r="L44" s="27">
+      <c r="M44" s="27">
         <f t="shared" si="113"/>
         <v>24</v>
       </c>
-      <c r="M44" s="21"/>
       <c r="N44" s="21"/>
       <c r="O44" s="21"/>
       <c r="P44" s="21"/>
@@ -9924,8 +10050,9 @@
       <c r="FA44" s="21"/>
       <c r="FB44" s="21"/>
       <c r="FC44" s="21"/>
+      <c r="FD44" s="21"/>
     </row>
-    <row r="45" spans="1:159" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:160" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
         <v>16</v>
       </c>
@@ -9934,18 +10061,18 @@
       </c>
       <c r="C45" s="51"/>
       <c r="D45" s="51"/>
-      <c r="E45" s="52"/>
+      <c r="E45" s="51"/>
       <c r="F45" s="52"/>
       <c r="G45" s="52"/>
       <c r="H45" s="52"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="56" t="str">
+      <c r="I45" s="52"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="56" t="str">
         <f t="shared" si="110"/>
         <v/>
       </c>
-      <c r="M45" s="57"/>
       <c r="N45" s="57"/>
       <c r="O45" s="57"/>
       <c r="P45" s="57"/>
@@ -10092,51 +10219,66 @@
       <c r="FA45" s="57"/>
       <c r="FB45" s="57"/>
       <c r="FC45" s="57"/>
+      <c r="FD45" s="57"/>
     </row>
-    <row r="47" spans="1:159" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E47" s="10"/>
+    <row r="47" spans="1:160" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
-      <c r="K47" s="58"/>
+      <c r="I47" s="10"/>
+      <c r="L47" s="58"/>
     </row>
-    <row r="48" spans="1:159" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E48" s="59"/>
+    <row r="48" spans="1:160" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F48" s="59"/>
       <c r="G48" s="59"/>
       <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="DU4:EA4"/>
-    <mergeCell ref="EB4:EH4"/>
-    <mergeCell ref="EI4:EO4"/>
-    <mergeCell ref="EP4:EV4"/>
-    <mergeCell ref="EW4:FC4"/>
-    <mergeCell ref="DG4:DM4"/>
-    <mergeCell ref="DN4:DT4"/>
-    <mergeCell ref="CL4:CR4"/>
-    <mergeCell ref="CS4:CY4"/>
-    <mergeCell ref="CZ4:DF4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="BQ4:BW4"/>
-    <mergeCell ref="BX4:CD4"/>
-    <mergeCell ref="CE4:CK4"/>
-    <mergeCell ref="AA4:AG4"/>
-    <mergeCell ref="AH4:AN4"/>
-    <mergeCell ref="AO4:AU4"/>
-    <mergeCell ref="AV4:BB4"/>
-    <mergeCell ref="BC4:BI4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="BR4:BX4"/>
+    <mergeCell ref="BY4:CE4"/>
+    <mergeCell ref="CF4:CL4"/>
+    <mergeCell ref="AB4:AH4"/>
+    <mergeCell ref="AI4:AO4"/>
+    <mergeCell ref="AP4:AV4"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="BD4:BJ4"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="T4:Z4"/>
-    <mergeCell ref="BJ4:BP4"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="U4:AA4"/>
+    <mergeCell ref="BK4:BQ4"/>
+    <mergeCell ref="DH4:DN4"/>
+    <mergeCell ref="DO4:DU4"/>
+    <mergeCell ref="CM4:CS4"/>
+    <mergeCell ref="CT4:CZ4"/>
+    <mergeCell ref="DA4:DG4"/>
+    <mergeCell ref="DV4:EB4"/>
+    <mergeCell ref="EC4:EI4"/>
+    <mergeCell ref="EJ4:EP4"/>
+    <mergeCell ref="EQ4:EW4"/>
+    <mergeCell ref="EX4:FD4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="I16:I30 I8:I14">
+  <conditionalFormatting sqref="J15">
+    <cfRule type="dataBar" priority="38">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FB94C8F7-ADF3-4D60-971B-6B5B8A9D9958}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:J30 J8:J14">
     <cfRule type="dataBar" priority="109">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -10150,21 +10292,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="dataBar" priority="38">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FB94C8F7-ADF3-4D60-971B-6B5B8A9D9958}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
+  <conditionalFormatting sqref="J31">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -10178,7 +10306,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:I35">
+  <conditionalFormatting sqref="J32:J35">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -10192,7 +10320,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
+  <conditionalFormatting sqref="J36">
     <cfRule type="dataBar" priority="114">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -10206,7 +10334,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
+  <conditionalFormatting sqref="J38">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -10220,7 +10348,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39 I37">
+  <conditionalFormatting sqref="J39 J37">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -10234,7 +10362,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
+  <conditionalFormatting sqref="J40">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -10248,7 +10376,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:I44">
+  <conditionalFormatting sqref="J41:J44">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -10262,7 +10390,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45 I7">
+  <conditionalFormatting sqref="J45 J7">
     <cfRule type="dataBar" priority="131">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -10276,43 +10404,43 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:FC24">
+  <conditionalFormatting sqref="N5:FD24">
     <cfRule type="expression" dxfId="8" priority="19">
-      <formula>AND(TODAY()&gt;=M$5,TODAY()&lt;N$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7:FC24">
-    <cfRule type="expression" dxfId="7" priority="17">
-      <formula>AND(task_start&lt;=M$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=M$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="18" stopIfTrue="1">
-      <formula>AND(task_end&gt;=M$5,task_start&lt;N$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M27:FC45">
-    <cfRule type="expression" dxfId="5" priority="3">
-      <formula>AND(task_start&lt;=M$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=M$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
-      <formula>AND(task_end&gt;=M$5,task_start&lt;N$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>AND(TODAY()&gt;=M$5,TODAY()&lt;N$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N25:FC26">
-    <cfRule type="expression" dxfId="2" priority="144">
-      <formula>AND(task_start&lt;=N$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=N$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="145" stopIfTrue="1">
-      <formula>AND(task_end&gt;=N$5,task_start&lt;O$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="150">
       <formula>AND(TODAY()&gt;=N$5,TODAY()&lt;O$5)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N7:FD24">
+    <cfRule type="expression" dxfId="7" priority="17">
+      <formula>AND(task_start&lt;=N$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=N$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="18" stopIfTrue="1">
+      <formula>AND(task_end&gt;=N$5,task_start&lt;O$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N27:FD45">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>AND(task_start&lt;=N$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=N$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+      <formula>AND(task_end&gt;=N$5,task_start&lt;O$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>AND(TODAY()&gt;=N$5,TODAY()&lt;O$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O25:FD26">
+    <cfRule type="expression" dxfId="2" priority="144">
+      <formula>AND(task_start&lt;=O$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=O$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="145" stopIfTrue="1">
+      <formula>AND(task_end&gt;=O$5,task_start&lt;P$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="150">
+      <formula>AND(TODAY()&gt;=O$5,TODAY()&lt;P$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="显示周数" prompt="更改此数字将滚动甘特图视图。" sqref="J4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="显示周数" prompt="更改此数字将滚动甘特图视图。" sqref="K4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
@@ -10326,6 +10454,21 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FB94C8F7-ADF3-4D60-971B-6B5B8A9D9958}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CE811520-6734-4D9F-968A-BC52DA289A96}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -10338,22 +10481,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I16:I30 I8:I14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FB94C8F7-ADF3-4D60-971B-6B5B8A9D9958}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>I15</xm:sqref>
+          <xm:sqref>J16:J30 J8:J14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A168FBD8-0825-4D68-ACA4-D987DE1F65FB}">
@@ -10368,7 +10496,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I31</xm:sqref>
+          <xm:sqref>J31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4F06369B-4985-4632-A04E-A5A87675ED52}">
@@ -10383,7 +10511,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I32:I35</xm:sqref>
+          <xm:sqref>J32:J35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{55D1DDE4-9F49-4547-82EB-2299382889A2}">
@@ -10398,7 +10526,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I36</xm:sqref>
+          <xm:sqref>J36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1B4C305B-587A-4311-9869-7ABBA82BEAFE}">
@@ -10413,7 +10541,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I38</xm:sqref>
+          <xm:sqref>J38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AB6C7CA4-91BF-47CF-BD83-9759541BF27B}">
@@ -10428,7 +10556,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I39 I37</xm:sqref>
+          <xm:sqref>J39 J37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D438B69A-A5DF-42BE-A666-AF81B252DA65}">
@@ -10443,7 +10571,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I40</xm:sqref>
+          <xm:sqref>J40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0BBDB119-E8BC-444F-9D1C-9415DBA33B62}">
@@ -10458,7 +10586,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I41:I44</xm:sqref>
+          <xm:sqref>J41:J44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{622B8A56-846E-4B77-B9E4-AE0974EF23B6}">
@@ -10473,7 +10601,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I45 I7</xm:sqref>
+          <xm:sqref>J45 J7</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
